--- a/samples/2-Sheets-SA-عينة-موردي-مواد-البناء-preview.xlsx
+++ b/samples/2-Sheets-SA-عينة-موردي-مواد-البناء-preview.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="846">
   <si>
     <t>GoogleMaps Link</t>
   </si>
@@ -41,442 +41,142 @@
     <t>Website</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AD%D9%84%D8%A7%D8%AA+%D8%A7%D9%84%D8%A8%D8%B1%D8%A7%D9%83+%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1+%D9%88%D8%B3%D8%A8%D8%A7%D9%83%D9%87%E2%80%AD/data=!4m7!3m6!1s0x150d2fa4b1251743:0xe42f0ba60979a350!8m2!3d29.8122823!4d39.8541532!16s%2Fg%2F11ffv1bd3q!19sChIJQxclsaQvDRURUKN5CaYLL-Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D9%86%D8%AE%D8%A8%D8%A9+%D8%A3%D8%A8%D8%AD%D8%B1+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%D8%A9+-%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15c1654790bc874d:0x854b7c5e43a7f00b!8m2!3d21.8101628!4d39.0640769!16s%2Fg%2F11sj9yd9xw!19sChIJTYe8kEdlwRURC_CnQ158S4U?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D9%84%D8%AD%D8%B3%D9%8A%D9%86%D9%8A+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%D8%A9+%D8%AE%D8%B2%D8%A7%D9%86%D8%A7%D8%AA+%D8%A8%D9%88%D9%84%D9%8A%D9%83%D9%88%D9%86+%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49e81780f628f7:0x1d97effa87005558!8m2!3d26.2801312!4d50.2012726!16s%2Fg%2F11ckthm8c0!19sChIJ9yj2gBfoST4RWFUAh_rvlx0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A7%D8%A8%D9%8A%D8%A7%D8%AA+%D8%A7%D9%84%D8%A7%D9%86%D8%AF%D9%84%D8%B3+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f09b93facd01b:0x26c669a06c076633!8m2!3d24.6076915!4d46.786233!16s%2Fg%2F11v084vyj5!19sChIJG9CsP7kJLz4RM2YHbKBpxiY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA+%D8%A7%D9%84%D8%A5%D8%A8%D8%A7%D8%A1+%D9%84%D9%84%D8%A3%D8%AF%D9%88%D8%A7%D8%AA+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D8%B3%D9%8A%D8%B1%D8%A7%D9%85%D9%8A%D9%83+%D9%88%D8%A7%D9%84%D8%AF%D9%8A%D9%83%D9%88%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2f0023e80cc3fb:0x9183e8af1cfa0137!8m2!3d24.7878102!4d46.8048302!16s%2Fg%2F11dxs9xfj0!19sChIJ-8MM6CMALz4RNwH6HK_og5E?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AA%D8%B1%D9%83%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49e844d633d317:0x5cd7eebd72d51ccd!8m2!3d26.3026056!4d50.2115136!16s%2Fg%2F11f2wq5547!19sChIJF9Mz1kToST4RzRzVcr3u11w?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B9%D8%AB%D9%85%D8%A7%D9%86+%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3fcc1c6b34d2e8ef:0xf620396214c4d5a6!8m2!3d28.4163574!4d48.4982651!16s%2Fg%2F11cryfd575!19sChIJ7-jSNGsczD8RptXEFGI5IPY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D9%88%D9%86+%D8%A7%D9%84%D8%B2%D9%87%D8%B1+%D9%84%D9%84%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15e98eccde802529:0x7e1de6da97f53d9c!8m2!3d21.2672152!4d40.4177832!16s%2Fg%2F11g0pvdyml!19sChIJKSWA3syO6RURnD31l9rmHX4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%DA%BE%D8%A7%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D9%85%D8%AF%DB%8C%D9%86%DB%81+%D8%B1%D9%81%D8%AD%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x156467cf76084429:0xc1983968b998ffe!8m2!3d29.6339772!4d43.5025311!16s%2Fg%2F11v188hytf!19sChIJKUQIds9nZBUR_o-Zi5aDGQw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A7%D8%B9%D9%85%D8%A7%D8%B1+%D8%A7%D9%84%D8%A7%D8%AD%D8%B3%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e37973b3f006a99:0x2b23be6f674aa20e!8m2!3d25.4043485!4d49.5522265!16s%2Fg%2F11v0f42zqf!19sChIJmWoAPzuXNz4RDqJKZ2--Iys?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D8%B1%D8%A9+%D8%A7%D9%84%D9%8A%D8%B3%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15764791bcfa0f39:0x72094504359b9b!8m2!3d27.5222092!4d41.693422!16s%2Fg%2F11k3hnhf2v!19sChIJOQ_6vJFHdhURm5s1BEUJcgA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B4%D8%B1%D9%82+%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15c3cb42815e4c27:0x66acac555c146aeb!8m2!3d21.4147126!4d39.2999502!16s%2Fg%2F11c2k7bkjz!19sChIJJ0xegULLwxUR62oUXFWsrGY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D9%84%D8%A8%D8%AE%D8%B1%D8%AC%D9%8A+%D8%A3%D8%AF%D9%88%D8%A7%D8%AA+%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A6%D9%8A%D8%A9+-+%D9%85%D9%88%D8%A7%D8%AF+%D8%B5%D8%AD%D9%8A%D8%A9%E2%80%AD/data=!4m5!3m4!1s0x3e49fc84244f83eb:0x9b87bd18370be21e!8m2!3d26.4261834!4d50.0940845?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A7%D9%84%D9%82%D8%AD%D8%B7%D8%A7%D9%86%D9%8A+%D9%84%D9%84%D8%B3%D8%A8%D8%A7%D9%83%D8%A9+%D9%88%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2545c272c48ddd:0x44c9d65f0bb1c370!8m2!3d24.1258992!4d47.2724612!16s%2Fg%2F11c7vwcsd_!19sChIJ3Y3EcsJFJT4RcMOxC1_WyUQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%B9%D9%84%D9%8A+%D8%A7%D9%84%D8%AC%D9%87%D9%86%D9%8A+%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA+%D8%AC%D9%88%D8%AA%D9%88%D9%86+JOTUN%E2%80%AD/data=!4m7!3m6!1s0x15bdbf70aa1d41bb:0x6d687027f6a31640!8m2!3d24.4792184!4d39.5838008!16s%2Fg%2F11f778f5yp!19sChIJu0EdqnC_vRURQBaj9idwaG0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A8%D8%B1%D8%AC+%D8%A7%D9%84%D9%83%D9%85%D9%8A%D8%A7%D8%AA+%D9%84%D9%84%D8%B3%D9%8A%D8%B1%D8%A7%D9%85%D9%8A%D9%83+%D9%88%D8%A7%D9%84%D8%A8%D9%88%D8%B1%D8%B3%D9%84%D8%A7%D9%86+%D9%88%D8%A7%D9%84%D8%B1%D8%AE%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e2f1ed3a539e659:0x27756a070ba5c464!8m2!3d24.6303391!4d46.5613192!16s%2Fg%2F11c2pkzs1n!19sChIJWeY5pdMeLz4RZMSlCwdqdSc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D9%84%D9%88%D8%B7%D9%86+%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3fd73f6830f92e09:0x3037f427ff0b201c!8m2!3d28.3947069!4d45.9528722!16s%2Fg%2F11trn8_z_t!19sChIJCS75MGg_1z8RHCAL_yf0NzA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AD%D9%84+%D8%A7%D9%84%D8%AD%D8%B1%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c2022786eb326f:0x2b19e707d7c1e644!8m2!3d21.4683119!4d39.8988521!16s%2Fg%2F11c55cy39r!19sChIJbzLrhicCwhURRObB1wfnGSs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D9%84%D8%B9%D9%82%D9%84%D8%A7+%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x1572bb92ccb9ee6b:0x530f889148a44e30!8m2!3d29.9728784!4d40.2152385!16s%2Fg%2F11c1r7d05h!19sChIJa-65zJK7chURME6kSJGID1M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D8%A8%D8%A7%D9%83%D8%A9+%D9%88%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2eeb9bdc58c729:0xc5ca9d5850c58e9a!8m2!3d24.9891109!4d46.5571363!16s%2Fg%2F11ffm1tftn!19sChIJKcdY3JvrLj4Rmo7FUFidysU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A8%D8%A7%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D9%84%D9%87+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581e32048acec4b:0xd0a8156b1a9cc0c1!8m2!3d26.294096!4d43.9911325!16s%2Fg%2F11rcxb2gh5!19sChIJS-ysSCDjgRURwcCcGmsVqNA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D9%85%D9%86%D8%A7%D8%B1+%D8%A7%D9%84%D8%A7%D8%B3%D9%83%D8%A7%D9%86+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D8%A9+%D9%88%D8%A7%D9%84%D9%85%D9%82%D8%A7%D9%88%D9%84%D8%A7%D8%AA+%D9%88%D8%AA%D8%A3%D8%AC%D9%8A%D8%B1+%D8%A7%D9%84%D8%B3%D9%82%D8%A7%D9%84%D8%A7%D8%AA+%D9%88%D8%A7%D9%84%D8%A7%D8%AE%D8%B4%D8%A7%D8%A8+%D9%88%D9%82%D9%88%D8%A7%D9%84%D8%A8+%D8%A7%D9%84%D8%B5%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x3e2eff19bb1ac287:0x465fdfe5ad495bb5!8m2!3d24.8225729!4d46.7726597!16s%2Fg%2F11n74d34rf!19sChIJh8Iauxn_Lj4RtVtJreXfX0Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%AA%D9%88%D8%AF%D8%B9+%D8%A3%D8%B3%D9%88%D8%A7%D8%B1+%D8%A7%D9%84%D8%AC%D9%86%D9%88%D8%A8+%D9%84%D9%84%D8%AD%D8%AF%D9%8A%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15fb4f78e0945ff3:0xd97c769d254ad4b2!8m2!3d18.3866366!4d42.7027506!16s%2Fg%2F11g0gd55dm!19sChIJ81-U4HhP-xURstRKJZ12fNk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%AC%D9%85%D9%84%D8%A9+%D8%A7%D9%84%D9%85%D8%B9+%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15fb5b497c73b1ff:0x9b5d0407a3af6aa5!8m2!3d18.3439944!4d42.7306148!16s%2Fg%2F11v099y4jd!19sChIJ_7FzfElb-xURpWqvowcEXZs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%88%D8%B1%D8%B4%D8%A9+%D9%86%D9%8A%D9%84%D9%88%D9%81%D8%B1+%D8%A7%D9%84%D8%A7%D8%B2%D8%B1%D9%82+%D9%84%D9%84%D8%AD%D8%AF%D8%A7%D8%AF%D8%A9+%D9%88%D8%A7%D9%84%D8%A3%D9%84%D9%85%D9%86%D9%8A%D9%88%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e49ff4275dbc259:0x58cc86b4e0f3e92a!8m2!3d26.4590426!4d50.0449145!16s%2Fg%2F11pdy16p_b!19sChIJWcLbdUL_ST4RKunz4LSGzFg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Abdulaziz+A+Al+Jubran+Trading+Est/data=!4m7!3m6!1s0x3e35a1cceb2329cf:0x7aa0ed0b6a8eb8d0!8m2!3d27.0091142!4d49.6484027!16s%2Fg%2F11q8y7mq2l!19sChIJzykj68yhNT4R0LiOagvtoHo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D9%87%D8%A7%D9%84%D8%A9+%D8%A7%D9%84%D8%AF%D8%B1%D8%A8+%D9%84%D9%84%D8%B1%D8%AE%D8%A7%D9%85+%D9%88+%D8%A7%D9%84%D8%B3%D9%8A%D8%B1%D8%A7%D9%85%D9%8A%D9%83%E2%80%AD/data=!4m7!3m6!1s0x15c21bf2960edb45:0x7da617c9c9f4bfb2!8m2!3d21.3816866!4d39.8095775!16s%2Fg%2F11sp10bsjc!19sChIJRdsOlvIbwhURsr_0yckXpn0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D9%87+%D8%A7%D9%84%D9%85%D8%AF%D9%89+%D8%A7%D9%84%D9%85%D8%AA%D9%85%D9%8A%D8%B2%D9%87+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%D9%87+%D8%A7%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1+%D9%88%D9%84%D8%A7%D8%AF%D9%88%D8%A7%D8%AA+%D8%B5%D8%AD%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e25452e3b60022d:0x85300d17e80e70e2!8m2!3d24.1005649!4d47.2345172!16s%2Fg%2F11vs279qkf!19sChIJLQJgOy5FJT4R4nAO6BcNMIU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%AC%D8%B2%D9%8A%D8%B1%D8%A9+-+Jazeera+Paints+%D9%85%D8%B9%D8%B1%D8%B6+%D8%B7%D8%B1%D9%8A%D8%A8+%28+%D9%88%D9%83%D9%8A%D9%84+%29%E2%80%AD/data=!4m7!3m6!1s0x15fba986438db743:0x5ec4155da7c19a9f!8m2!3d18.5704375!4d43.2076875!16s%2Fg%2F11h2jytbld!19sChIJQ7eNQ4ap-xURn5rBp10VxF4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%83%D8%A7%D9%86+%D9%84%D9%84%D8%B1%D8%AE%D8%A7%D9%85+The+Place+for+marble%E2%80%AD/data=!4m7!3m6!1s0x3e2f09646405ccf1:0x4cbf2f129402686c!8m2!3d24.6016931!4d46.819133!16s%2Fg%2F11s32tfs0y!19sChIJ8cwFZGQJLz4RbGgClBIvv0w?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Electrical+tools+materials+shop/data=!4m7!3m6!1s0x15b0a70042cb8dbb:0xeb06b22c44b7facd!8m2!3d25.02476!4d37.2672786!16s%2Fg%2F11vk6r475m!19sChIJu43LQgCnsBURzfq3RCyyBus?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%AC%D8%B2%D9%8A%D8%B1%D9%87+%D9%84%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15fd517a0c806a19:0x4c743df06f9781f8!8m2!3d17.161565!4d42.6416714!16s%2Fg%2F11gtb203n8!19sChIJGWqADHpR_RUR-IGXb_A9dEw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A8%D8%B1%D9%8A%D9%82+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%AF%D8%A9+%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15e2cb67aa9b8f25:0xe6cf1a76848cfe7!8m2!3d17.3763036!4d42.5453367!16s%2Fg%2F11v4m1zvfx!19sChIJJY-bqmfL4hUR589IaKfxbA4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%AA%D9%85%D8%A7%D8%B6%D8%B1+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D9%84%D9%87+%D8%A7%D9%84%D8%B3%D8%A8%D8%A7%D9%83%D8%A9+%D9%88%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2effbcaef3990b:0xba939c7fce02234a!8m2!3d24.8183908!4d46.762559!16s%2Fg%2F11kbdlh4md!19sChIJC5nzrrz_Lj4RSiMCzn-ck7o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A8%D9%84%D8%B7+%D8%B3%D9%8A%D8%B1%D8%A7%D9%85%D9%8A%D9%83+%D9%88%D8%B1%D8%AE%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e2f0514acf7654d:0x565d21845a43e624!8m2!3d24.633051!4d46.6986443!16s%2Fg%2F11l5t5dgmn!19sChIJTWX3rBQFLz4RJOZDWoQhXVY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D9%84%D8%AA%D9%86%D9%85%D9%8A%D8%A9+%D8%A7%D9%84%D8%B3%D8%B1%D9%8A%D8%B9%D8%A9+%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1+%D9%88%D8%A7%D9%84%D8%B3%D8%A8%D8%A7%D9%83%D8%A9+%D9%88%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e3797fe21736633:0xe9f773364acae27!8m2!3d25.360005!4d49.5685858!16s%2Fg%2F11t_trspx8!19sChIJM2ZzIf6XNz4RJ66sZDN3nw4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AD%D9%85%D8%AF+%D9%81%D8%AA%D8%AD+%D8%A7%D9%84%D8%AF%D9%8A%D9%86+%D8%B9%D9%8A%D8%B3%D9%89+%D8%A7%D9%84%D8%B9%D9%82%D9%8A%D9%84%D9%8A+%D9%84%D9%84%D8%B3%D8%A8%D8%A7%D9%83%D8%A9+%D9%88%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2f04878ae166a5:0x1db88b4305e8f193!8m2!3d24.6720464!4d46.7090388!16s%2Fg%2F11g01_c3v0!19sChIJpWbhiocELz4Rk_HoBUOLuB0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%82%D9%81%D8%A7%D8%B1%D9%8A+%D9%84%D9%84%D8%A3%D8%AF%D9%88%D8%A7%D8%AA+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9+%28+%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%B1%D8%AE%D8%A7%D9%85+-+%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%D8%AF%D9%8A%D9%83%D9%88%D8%B1+-+%D8%AE%D9%84%D8%A7%D8%B7%D8%A7%D8%AA+%D9%85%D8%BA%D8%A7%D8%B3%D9%84+%29%E2%80%AD/data=!4m7!3m6!1s0x1607e3faa0738497:0x7adf0c1ee49d64d4!8m2!3d16.8824491!4d42.6125659!16s%2Fg%2F11k3ljtrkt!19sChIJl4RzoPrjBxYR1GSd5B4M33o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA+%D8%AA%D9%83%D9%86%D9%88%E2%80%AD/data=!4m7!3m6!1s0x15c20f8d694c94d7:0x17adf8dd8c9ca03a!8m2!3d21.3576416!4d39.824435!16s%2Fg%2F11rxl1bc8x!19sChIJ15RMaY0PwhUROqCcjN34rRc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%88%D8%A7%D8%AD%D8%A9+%D8%A7%D9%84%D8%AD%D9%85%D8%B1%D8%A7%D8%A1+%D9%84%D9%84%D8%B3%D8%A8%D8%A7%D9%83%D8%A9+%D9%88%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2f01f9cc1b4c95:0x2b556b771d95623d!8m2!3d24.7321265!4d46.815901!16s%2Fg%2F11sh61xrpq!19sChIJlUwbzPkBLz4RPWKVHXdrVSs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D9%87+%D8%B3%D8%B9%D9%88%D8%AF+%D8%A7%D9%84%D8%B9%D8%AA%D9%8A%D8%A8%D9%8A+%D8%A7%D9%84%D8%A8%D9%88%D8%B1%D8%B3%D9%84%D8%A7%D9%86+%D9%88%D8%A7%D9%84%D8%B3%D9%8A%D8%B1%D8%A7%D9%85%D9%8A%D9%83%E2%80%AD/data=!4m7!3m6!1s0x3e2efdb3b53cb0f5:0x359813b568104264!8m2!3d24.8032344!4d46.7388372!16s%2Fg%2F11s8g8_gqq!19sChIJ9bA8tbP9Lj4RZEIQaLUTmDU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D9%88%D8%A7%D8%AD%D8%A9+%D8%A7%D9%84%D9%86%D8%AE%D9%8A%D9%84+%D9%84%D8%A8%D9%8A%D8%B9+%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e37913d06fdb197:0x4c69fe0d1101de81!8m2!3d25.3395758!4d49.5815085!16s%2Fg%2F11f3plgs59!19sChIJl7H9Bj2RNz4Rgd4BEQ3-aUw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D9%84%D9%81%D9%88%D9%84%D8%A7%D8%B0+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D8%A9+%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1+%D9%88%D8%AD%D8%AF%D9%8A%D8%AF+%D8%AA%D8%B3%D9%84%D9%8A%D8%AD+%D9%88%D8%A7%D8%AE%D8%B4%D8%A7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x3e2eef9ed9da3b11:0x1562a36a14f334c9!8m2!3d24.9112972!4d46.6156428!16s%2Fg%2F11ng6cxcl6!19sChIJETva2Z7vLj4RyTTzFGqjYhU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B5%D9%86%D8%B9+%D8%A7%D9%84%D8%B3%D8%B9%D9%8A%D8%AF+%D9%84%D9%84%D8%B2%D8%AC%D8%A7%D8%AC+%D9%88%D8%A7%D9%84%D8%B3%D9%83%D8%B1%D9%8A%D8%AA+(%D8%A7%D9%84%D8%B9%D9%85%D8%B1%D9%8A)%E2%80%AD/data=!4m7!3m6!1s0x15fb51faeabb6d39:0xd5932e08dec9b82a!8m2!3d18.3432907!4d42.6666945!16s%2Fg%2F11q8x0pmr7!19sChIJOW276vpR-xURKrjJ3gguk9U?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AF%D8%A7%D8%B1+%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15c17a61ee90d435:0x4019e880224994af!8m2!3d21.8380166!4d39.196984!16s%2Fg%2F11cs6bl1n5!19sChIJNdSQ7mF6wRURr5RJIoDoGUA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B5%D9%86%D8%B9+%D8%A3%D9%86%D8%B8%D9%85%D8%A9+%D8%A8%D8%AF%D8%A7%D8%A6%D9%84+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2efdd1110a0f93:0xc788bbbe5cdb5e46!8m2!3d24.7999345!4d46.7413534!16s%2Fg%2F11gdycwpwl!19sChIJkw8KEdH9Lj4RRl7bXL67iMc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%83%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15c21b5236a2146b:0x69160e480bbd2503!8m2!3d21.4405703!4d39.7953702!16s%2Fg%2F11ks3bmw76!19sChIJaxSiNlIbwhURAyW9C0gOFmk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D9%84%D9%88%D8%A7%D9%86+%D8%B7%D9%8A%D8%A8%D8%A9+%D9%84%D9%84%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15bdc1aac02ea793:0xed6af857beb87da5!8m2!3d24.391078!4d39.612002!16s%2Fg%2F11clrnc3dh!19sChIJk6cuwKrBvRURpX24vlf4au0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA+%D8%AF%D8%A7%D9%8A%D8%B1%D9%88%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15fb598afb41b905:0xba0bfb4219de12c4!8m2!3d18.2972924!4d42.7284162!16s%2Fg%2F11fy_qbrrj!19sChIJBblB-4pZ-xURxBLeGUL7C7o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A8%D8%B1%D9%8A%D9%82+%D8%A7%D9%84%D8%A7%D8%B3%D8%B7%D8%AD+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fd511b75901b25:0xfcf075f3d48c15bb!8m2!3d17.1352973!4d42.646266!16s%2Fg%2F11y1p0sg3c!19sChIJJRuQdRtR_RURuxWM1PN18Pw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%D8%A9+%D9%84%D9%84%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e49fc79f1cabf39:0x1909c29d082baf0!8m2!3d26.4413534!4d50.0963795!16s%2Fg%2F11f3q76wpn!19sChIJOb_K8Xn8ST4R8LqC0CmckAE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%AC%D8%B2%D9%8A%D8%B1%D8%A9+-+Jazeera+Paints+%D9%85%D8%B9%D8%B1%D8%B6+%D8%A7%D9%84%D8%AD%D8%B1%D9%85%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3cd151541a6b7:0x2dc0ab8ee31d8f96!8m2!3d21.5076722!4d39.2568811!16s%2Fg%2F11nxt6y38y!19sChIJt6ZBFRXNwxURlo8d446rwC0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B9%D8%B1%D8%B6+%D9%88+%D9%85%D8%B3%D8%AA%D9%88%D8%AF%D8%B9+%D8%B3%D9%8A%D9%84%D9%8A%D9%86+%D9%84%D9%84%D8%B3%D9%8A%D8%B1%D8%A7%D9%85%D9%8A%D9%83%E2%80%AD/data=!4m7!3m6!1s0x3e2f09fd004ecf8d:0x8aff7a43aa5553e9!8m2!3d24.6012074!4d46.7859436!16s%2Fg%2F11td4knsw4!19sChIJjc9OAP0JLz4R6VNVqkN6_4o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%A7%D9%84%D9%88%D8%A7%D9%86+%D8%A7%D9%84%D8%AF%D9%88%D9%84%D9%8A%D8%A9+%D9%84%D8%A7%D8%B5%D8%A8%D8%A7%D8%BA+%D8%A7%D9%84%D8%B3%D9%8A%D8%A7%D8%B1%D8%A7%D8%AA+International+colors+For+Car+Paints%E2%80%AD/data=!4m7!3m6!1s0x3e49fdc54e0c0e3f:0x2c2be51cdfdcb57e!8m2!3d26.4456502!4d50.0487986!16s%2Fg%2F11bw2h5krv!19sChIJPw4MTsX9ST4RfrXc3xzlKyw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA+%D8%A7%D9%88%D8%B3%D9%83%D8%A7%D8%B1+%D8%A8%D9%86+%D9%84%D8%A7%D8%AF%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3cd9e8163c1c7:0x44e4c4d6c58ad612!8m2!3d21.4742873!4d39.2619416!16s%2Fg%2F11hdp1qzk1!19sChIJx8FjgZ7NwxUREtaKxdbE5EQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A7%D9%84%D8%A7%D8%B3%D9%86%D8%A7%D8%AF+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%D9%87+ESCO+-+Alesnad+Company%E2%80%AD/data=!4m7!3m6!1s0x3e2f05370ef6a689:0x74b8853554732b55!8m2!3d24.6386901!4d46.7459974!16s%2Fg%2F11ptv6fdbv!19sChIJiab2DjcFLz4RVStzVDWFuHQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D9%82%D8%B5%D8%B1%D9%83+%D8%A7%D9%84%D9%85%D9%85%D9%8A%D8%B2+%D9%84%D9%84%D8%B3%D9%8A%D8%B1%D8%A7%D9%85%D9%8A%D9%83+%D9%88%D8%A7%D9%84%D8%B1%D8%AE%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e2f096e8d98c9bd:0x87917f18c884d0d8!8m2!3d24.6063954!4d46.7752778!16s%2Fg%2F11svnl5b3m!19sChIJvcmYjW4JLz4R2NCEyBh_kYc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%AC%D8%B2%D9%8A%D8%B1%D8%A9+-+Jazeera+Paints+%D9%85%D8%B9%D8%B1%D8%B6+%D9%88%D9%84%D9%8A+%D8%A7%D9%84%D8%B9%D9%87%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15c217cecc07cf67:0x9c62d4e4259fb0fe!8m2!3d21.3313113!4d39.6829347!16s%2Fg%2F11t0vxpc6g!19sChIJZ88HzM4XwhUR_rCfJeTUYpw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A7%D9%84%D8%B1%D8%A7%D9%81%D8%B9%D8%A7%D8%AA+%D8%A7%D9%84%D8%AF%D9%88%D9%84%D9%8A%D8%A9+%D9%84%D9%84%D9%85%D8%B9%D8%AF%D8%A7%D8%AA+%D8%A7%D9%84%D8%AA%D8%B4%D8%BA%D9%8A%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3d06333553019:0x42be032eac6bc428!8m2!3d21.5804932!4d39.1647738!16s%2Fg%2F11f7gb5dn2!19sChIJGTBVM2PQwxURKMRrrC4DvkI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%A8%D9%8A%D8%AA+%D8%A7%D9%84%D8%B1%D8%A7%D9%82%D9%8A+%D9%84%D9%84%D8%B3%D9%8A%D8%B1%D8%A7%D9%85%D9%8A%D9%83+2%E2%80%AD/data=!4m7!3m6!1s0x15c233ac52f52781:0x1f67e0174c4eaf7!8m2!3d21.4480063!4d39.3291741!16s%2Fg%2F11w51dsc6m!19sChIJgSf1UqwzwhUR9-rEdAF-9gE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/AFiFi+Solar/data=!4m7!3m6!1s0x3e49c398e96d73c9:0x35fece9bd1cc58ad!8m2!3d26.2483343!4d50.2151298!16s%2Fg%2F11q30vjmby!19sChIJyXNt6ZjDST4RrVjM0ZvO_jU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B5%D8%AF%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2efd231351f627:0x64a9c264d71b431c!8m2!3d24.8695861!4d46.6394647!16s%2Fg%2F11b6d6lr50!19sChIJJ_ZREyP9Lj4RHEMb12TCqWQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%AC%D8%B2%D9%8A%D8%B1%D8%A9+-+Jazeera+Paints+%D9%85%D8%B9%D8%B1%D8%B6+%D8%AD%D9%8A+%D8%A7%D9%84%D9%85%D8%B7%D8%A7%D8%B1+%28+%D9%88%D9%83%D9%8A%D9%84+%29%E2%80%AD/data=!4m7!3m6!1s0x1583ca9266fee48d:0xa4855b8e2f3ec952!8m2!3d25.870239!4d43.5004402!16s%2Fg%2F11clqkm6r5!19sChIJjeT-ZpLKgxURUsk-L45bhaQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D9%84%D8%B3%D8%A8%D8%A7%D9%83%D8%A9%D9%88%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1+%D9%88%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2ee3a41dc313bd:0x268a6b6f19dfeb84!8m2!3d24.7838307!4d46.6322177!16s%2Fg%2F11ry3cj652!19sChIJvRPDHaTjLj4RhOvfGW9riiY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%88%D8%A7%D8%AF+%D8%A8%D9%86%D8%A7%D8%A1+%D8%B1%D9%85%D9%84+%D9%88%D8%B3%D9%85%D9%86%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2eff007af961e5:0x26443e1804881ab1!8m2!3d24.7850385!4d46.7484617!16s%2Fg%2F11vxb2xmx6!19sChIJ5WH5egD_Lj4RsRqIBBg-RCY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D8%B3%D8%A7%D8%B3+%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15a9b2a050e1fd7f:0x38eefd019136da1c!8m2!3d28.418424!4d36.5900539!16s%2Fg%2F11ghlfj2wb!19sChIJf_3hUKCyqRURHNo2kQH97jg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D9%84%D9%88%D9%82%D8%A7%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e98eb58448e6b1:0x1cd2176a4dec4370!8m2!3d21.2677318!4d40.4104647!16s%2Fg%2F11g0tlqmgn!19sChIJseZIhLWO6RURcEPsTWoX0hw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA+%D8%AC%D9%88%D8%AA%D9%86+%D8%A8%D8%AA%D8%A8%D9%88%D9%83%E2%80%AD/data=!4m7!3m6!1s0x15a9ad18be0bc1a5:0xc308214bbd2d4572!8m2!3d28.3932839!4d36.5736694!16s%2Fg%2F11h081byjj!19sChIJpcELvhitqRURckUtvUshCMM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%87%D8%A7%D9%86+%D8%A8%D9%88%D9%8A%D9%87+%D8%AC%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c16300359130ff:0x695c174183b9ab2!8m2!3d21.7751259!4d39.0861695!16s%2Fg%2F11vqn7qdqs!19sChIJ_zCRNQBjwRURspo7GHTBlQY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%AF%D8%A7%D9%86%D9%8A%D8%A9+%D8%A7%D9%84%D9%82%D8%AD%D8%B7%D8%A7%D9%86%D9%8A+%D9%84%D9%84%D8%A3%D8%AF%D9%88%D8%A7%D8%AA+%D8%A7%D9%84%D8%B5%D8%AD%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f116a3e57e5e7:0xf6a08cf3819989e0!8m2!3d24.5752898!4d46.6343159!16s%2Fg%2F11l2v26fb8!19sChIJ5-VXPmoRLz4R4ImZgfOMoPY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%B4%D8%A7%D9%86+%D9%84%D9%84%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c3cfb95d6ee907:0xe3a43fb4935242f8!8m2!3d21.5150992!4d39.1815609!16s%2Fg%2F11gjt8x4c8!19sChIJB-luXbnPwxUR-EJSk7Q_pOM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%B4%D8%A8%D8%AD%E2%80%AD/data=!4m7!3m6!1s0x15c3cefecb7f7dd5:0xccd856cd241288bb!8m2!3d21.4908454!4d39.2010097!16s%2Fg%2F11gj3b3mv5!19sChIJ1X1_y_7OwxURu4gSJM1W2Mw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D8%A7%D8%AC+%D8%A7%D9%84%D8%AA%D9%86%D9%85%D9%8A%D8%A9+%D9%84%D9%84%D8%B7%D8%A7%D9%82%D8%A9+%D8%A7%D9%84%D8%B4%D9%85%D8%B3%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f05b187443997:0x55939967ceb15307!8m2!3d24.6416037!4d46.7208576!16s%2Fg%2F11g8w8t3cj!19sChIJlzlEh7EFLz4RB1OxzmeZk1U?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AD%D9%84+%D9%85%D9%88%D8%A7%D8%AF+%D8%B5%D8%AD%D9%8A%D9%87+%D9%88%D8%A7%D8%AF%D9%88%D8%A7%D8%AA+%D9%86%D8%B8%D8%A7%D9%81%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49fd9e3cf751e9:0x97a680b8cc92cf2e!8m2!3d26.3952125!4d50.0983267!16s%2Fg%2F11kj0kgfvz!19sChIJ6VH3PJ79ST4RLs-SzLiAppc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Shop/data=!4m7!3m6!1s0x3e379500116cfdd1:0x15ffcccbdaa06575!8m2!3d25.4503696!4d49.656211!16s%2Fg%2F11vxwxxcwt!19sChIJ0f1sEQCVNz4RdWWg2svM_xU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%AE%D8%A8%D8%B1%D8%A7%D8%A1%D8%A7%D9%84%D8%B9%D8%B2%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e2ac500712d2e95:0xe42fade5dadaef28!8m2!3d25.9160884!4d45.4001172!16s%2Fg%2F11y2nxthw6!19sChIJlS4tcQDFKj4RKO_a2uWtL-Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D9%84%D8%B3%D8%A8%D8%A7%D9%83%D8%A9+%D9%88%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1+%D8%A8%D9%8A%D8%B9+%D9%88%D8%B5%D9%8A%D8%A7%D9%86%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f05c82d38e2e7:0x3eaf1492956ea193!8m2!3d24.6420938!4d46.729029!16s%2Fg%2F11f1yssqjj!19sChIJ5-I4LcgFLz4Rk6FulZIUrz4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%81%D8%A7%D9%82+%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x0:0x8ee5314ad6ea0cbf!8m2!3d24.4606147!4d39.6052072!16s%2Fg%2F11s56pfn98!19sChIJAAAAAAAAAAARvwzq1kox5Y4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%A7%D9%85%D8%A7%D9%86%D9%87+%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15c3b548d95520fd:0x1500081755856515!8m2!3d21.3055469!4d39.2544911!16s%2Fg%2F11t5m6ny3k!19sChIJ_SBV2Ui1wxURFWWFVRcIABU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%88%D9%86%D9%8A%D8%B3+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3fcc1c6bf281ca07:0xcd1c11fbb5a47445!8m2!3d28.4169824!4d48.502616!16s%2Fg%2F11cncb3nnd!19sChIJB8qB8msczD8RRXSktfsRHM0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D9%82%D8%B5%D8%B1%D8%A7%D9%84%D9%85%D9%86%D8%A7%D9%85%D8%A9+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f05e187d89563:0xf53ee919a059237b!8m2!3d24.6316136!4d46.7460315!16s%2Fg%2F11f3n69rw3!19sChIJY5XYh-EFLz4ReyNZoBnpPvU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%B5%D8%B1%D9%88%D8%AD+%D8%A7%D9%84%D8%B4%D8%B1%D9%82%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x80617e4ee3a9f727:0xa75bc8ea5167eef7!8m2!3d26.4640757!4d50.0259037!16s%2Fg%2F11q2yqf8rl!19sChIJJ_ep405-YYAR9-5nUerIW6c?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A7%D9%84%D8%B7%D9%88%D8%A8+%D8%A7%D9%84%D8%A3%D8%AD%D9%85%D8%B1+%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A+%D9%81%D8%B1%D8%B9+%D8%A7%D9%84%D8%B3%D9%86%D8%A7%D8%A8%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15c3cafdfaebed0b:0x6944c902e548d5d0!8m2!3d21.3909408!4d39.2847796!16s%2Fg%2F11dym2zynq!19sChIJC-3r-v3KwxUR0NVI5QLJRGk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%AD%D8%AA%D8%B1%D9%81+%D9%84%D9%84%D8%AD%D8%AC%D8%B1+%D8%A7%D9%84%D8%B7%D8%A8%D9%8A%D8%B9%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c2334c4b6e5abb:0xb1d204dcbcbf8d3c!8m2!3d21.4507192!4d39.3257225!16s%2Fg%2F11gtzg8zmv!19sChIJu1puS0wzwhURPI2_vNwE0rE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D9%87+%D9%85%D9%86%D8%B5%D9%88%D8%B1+%D8%A7%D9%84%D8%BA%D8%A7%D9%85%D8%AF%D9%8A+%D8%A7%D9%84%D8%A8%D8%AF%D9%88%D9%8A+%D9%84%D9%84%D8%B3%D8%A8%D8%A7%D9%83%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15c3cd870812ab61:0x220fffe61ba6cd90!8m2!3d21.4557909!4d39.2701201!16s%2Fg%2F11g4j7l6pw!19sChIJYasSCIfNwxURkM2mG-b_DyI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D9%88%D8%B9%D8%A9+%D8%A7%D9%84%D8%AE%D8%B6%D8%B1%D8%A7%D8%A1+%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15ef47e25500217d:0x6898ccf1d4609821!8m2!3d20.1044044!4d41.4436362!16s%2Fg%2F1pp2vb5n2!19sChIJfSEAVeJH7xURIZhg1PHMmGg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A8%D9%86%D8%A7%D8%A1+%D8%A7%D9%84%D9%85%D8%AA%D8%AD%D8%AF%D8%A9+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D8%A9+buc%E2%80%AD/data=!4m7!3m6!1s0x15a9af768c8ee2f5:0x244844e0c7a48a43!8m2!3d28.4282085!4d36.4545285!16s%2Fg%2F11nnvxgn03!19sChIJ9eKOjHavqRURQ4qkx-BESCQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D9%85%D8%AC%D9%85%D9%88%D8%B9%D8%A9+%D8%A7%D9%84%D8%AC%D8%B0%D9%88%D8%B1+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fb59f11f7aa67f:0x59d997750f03a985!8m2!3d18.2971903!4d42.720017!16s%2Fg%2F11gbw9d0r9!19sChIJf6Z6H_FZ-xURhakDD3WX2Vk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA+%D8%B3%D9%88%D9%83%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c3cc4b40412e81:0xc70881a522924dd8!8m2!3d21.4790888!4d39.2642701!16s%2Fg%2F11ghplxdnn!19sChIJgS5BQEvMwxUR2E2SIqWBCMc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%88%D8%B1%D8%AF%D8%A9+%D9%86%D9%85%D8%A7%D8%B1+%D9%84%D9%84%D8%B3%D9%8A%D8%B1%D8%A7%D9%85%D9%8A%D9%83%E2%80%AD/data=!4m7!3m6!1s0x3e2f09e5cb664697:0x921ac70edc486490!8m2!3d24.6013357!4d46.7857793!16s%2Fg%2F11pdxt15j0!19sChIJl0Zmy-UJLz4RkGRI3A7HGpI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A7%D9%84%D8%B1%D8%A7%D8%AC%D8%AD%D9%8A+%D9%84%D9%84%D8%B5%D9%86%D8%A7%D8%B9%D8%A9+%D9%88%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D8%A9+%D8%A7%D9%84%D9%88%D9%82%D9%81%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a327693a117511:0xf0dad90bc10c0241!8m2!3d25.7104207!4d39.2980519!16s%2Fg%2F11pyzdy783!19sChIJEXUROmknoxURQQIMwQvZ2vA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AC%D9%88%D8%AA%D9%86+%7C+JOTUN+-+Jannat+Alalwan%E2%80%AD/data=!4m7!3m6!1s0x15c3cc9fc4e97297:0x42af4e4455922f3e!8m2!3d21.4282219!4d39.2981379!16s%2Fg%2F11crzv2sl7!19sChIJl3LpxJ_MwxURPi-SVUROr0I?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D9%84%D9%87+%D9%88%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D8%B1%D8%AD%D9%85%D9%86+%D8%A7%D9%84%D8%AF%D8%AD%D9%8A%D9%85+%D9%84%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2ee49b93fc308d:0x79678e9f12f903c8!8m2!3d24.8179466!4d46.59248!16s%2Fg%2F11g9ngxlvr!19sChIJjTD8k5vkLj4RyAP5Ep-OZ3k?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D9%85%D8%AD%D9%85%D8%AF+%D9%85%D8%B4%D8%A8%D8%A8+%D8%A7%D9%84%D9%82%D8%AD%D8%B7%D8%A7%D9%86%D9%8A+%D9%84%D9%84%D8%B3%D8%A8%D8%A7%D9%83%D8%A9+%D9%88%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2f19be72e15075:0x804fee1d47b4a6b9!8m2!3d24.559549!4d46.5614675!16s%2Fg%2F11vcjrqg4k!19sChIJdVDhcr4ZLz4Ruaa0Rx3uT4A?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A8%D9%8A%D8%AA+%D8%A7%D9%84%D8%B3%D9%84%D8%B7%D8%A7%D9%86%D8%A9+%D9%84%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D8%A9%E2%80%AD/data=!4m5!3m4!1s0x3e2f090ca5262d63:0x87f98d9fdc608bb6!8m2!3d24.6051245!4d46.7741378?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Jotun+Paints+-Jubail+Corp+Trading+%D8%AF%D9%87%D8%A7%D9%86%D8%A7%D8%AA+%D8%AC%D9%88%D8%AA%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e35a1c31959018f:0x961a655e371f6518!8m2!3d27.0107029!4d49.6548442!16s%2Fg%2F11n8kn7lvn!19sChIJjwFZGcOhNT4RGGUfN15lGpY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D8%A7%D9%84%D9%86%D8%B6%D8%A7%D9%84+%D9%84%D9%84%D8%B3%D8%A8%D8%A7%D9%83%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3d03ca51f68a9:0xe61827da012a3418!8m2!3d21.5506848!4d39.1798193!16s%2Fg%2F11hbc31571!19sChIJqWgfpTzQwxURGDQqAdonGOY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%86%D8%A7%D8%A1+%D8%A7%D9%84%D8%AC%D9%86%D9%88%D8%A8+%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15fed9174e7fef4b:0xec4b7db8c40ad6f2!8m2!3d17.5725244!4d44.3511485!16s%2Fg%2F11g73592gr!19sChIJS-9_ThfZ_hUR8tYKxLh9S-w?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%86%D8%A7%D8%A1+%D9%88%D8%A7%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2ee10b0be97a93:0x651a0bef304f6ffb!8m2!3d24.7487522!4d46.5718857!16s%2Fg%2F11f__28wpp!19sChIJk3rpCwvhLj4R-29PMO8LGmU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B4%D9%87%D8%AF%D8%A7%D8%A1+%D8%A7%D9%84%D8%B4%D9%85%D8%A7%D9%84%D9%8A%D8%A9+%D8%B4%D8%A7%D8%B1%D8%B9+%D8%B9%D8%B4%D8%B1%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15e98d43ca9f370b:0x509918755c4ea69f!8m2!3d21.2247788!4d40.3807901!16s%2Fg%2F11vlm73gfy!19sChIJCzefykON6RURn6ZOXHUYmVA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>محلات البراك كهرباء وسباكه</t>
-  </si>
-  <si>
-    <t>شركة نخبة أبحر التجارية -لمواد البناء</t>
-  </si>
-  <si>
-    <t>مؤسسة الحسيني التجارية خزانات بوليكون السعودية</t>
-  </si>
-  <si>
-    <t>شركة ابيات الاندلس للتجارة</t>
-  </si>
-  <si>
-    <t>بيت الإباء للأدوات الصحية والسيراميك والديكور</t>
+    <t>https://www.go...</t>
+  </si>
+  <si>
+    <t>محلات البراك ك...</t>
+  </si>
+  <si>
+    <t>شركة نخبة أبحر...</t>
+  </si>
+  <si>
+    <t>مؤسسة الحسيني ...</t>
+  </si>
+  <si>
+    <t>شركة ابيات الا...</t>
+  </si>
+  <si>
+    <t>بيت الإباء للأ...</t>
   </si>
   <si>
     <t>التركي</t>
   </si>
   <si>
-    <t>العثمان لمواد البناء</t>
-  </si>
-  <si>
-    <t>لون الزهر للدهانات</t>
-  </si>
-  <si>
-    <t>دھانات المدینہ رفحاء</t>
-  </si>
-  <si>
-    <t>شركة اعمار الاحسا</t>
+    <t>العثمان لمواد ...</t>
+  </si>
+  <si>
+    <t>لون الزهر للده...</t>
+  </si>
+  <si>
+    <t>دھانات المدینہ...</t>
+  </si>
+  <si>
+    <t>شركة اعمار الا...</t>
   </si>
   <si>
     <t>درة اليسر</t>
   </si>
   <si>
-    <t>الشرق لمواد البناء</t>
-  </si>
-  <si>
-    <t>مؤسسة البخرجي أدوات كهربائية - مواد صحية</t>
-  </si>
-  <si>
-    <t>شركة القحطاني للسباكة والكهرباء</t>
-  </si>
-  <si>
-    <t>مؤسسة علي الجهني دهانات جوتن JOTUN</t>
-  </si>
-  <si>
-    <t>شركة برج الكميات للسيراميك والبورسلان والرخام</t>
-  </si>
-  <si>
-    <t>مؤسسة الوطن لمواد البناء</t>
+    <t>الشرق لمواد ال...</t>
+  </si>
+  <si>
+    <t>مؤسسة البخرجي ...</t>
+  </si>
+  <si>
+    <t>شركة القحطاني ...</t>
+  </si>
+  <si>
+    <t>مؤسسة علي الجه...</t>
+  </si>
+  <si>
+    <t>شركة برج الكمي...</t>
+  </si>
+  <si>
+    <t>مؤسسة الوطن لم...</t>
   </si>
   <si>
     <t>محل الحربي</t>
   </si>
   <si>
-    <t>مؤسسة العقلا لمواد البناء</t>
+    <t>مؤسسة العقلا ل...</t>
   </si>
   <si>
     <t>سباكة وكهرباء</t>
   </si>
   <si>
-    <t>مؤسسة باعبدالله التجارية</t>
-  </si>
-  <si>
-    <t>شركة منار الاسكان للتجارة والمقاولات وتأجير السقالات والاخشاب وقوالب الصب</t>
-  </si>
-  <si>
-    <t>مستودع أسوار الجنوب للحديد</t>
-  </si>
-  <si>
-    <t>مؤسسة جملة المع لمواد البناء</t>
-  </si>
-  <si>
-    <t>ورشة نيلوفر الازرق للحدادة والألمنيوم</t>
-  </si>
-  <si>
-    <t>Abdulaziz A Al Jubran Trading Est</t>
-  </si>
-  <si>
-    <t>مؤسسة هالة الدرب للرخام و السيراميك</t>
-  </si>
-  <si>
-    <t>شركه المدى المتميزه التجاريه المواد البناء ولادوات صحيه</t>
-  </si>
-  <si>
-    <t>دهانات الجزيرة - Jazeera Paints معرض طريب ( وكيل )</t>
-  </si>
-  <si>
-    <t>المكان للرخام The Place for marble</t>
-  </si>
-  <si>
-    <t>Electrical tools materials shop</t>
-  </si>
-  <si>
-    <t>دهانات الجزيرة - Jazeera Paints معرض صبيا الجديد ( وكيل )</t>
-  </si>
-  <si>
-    <t>مؤسسة بريق الريادة لمواد البناء</t>
-  </si>
-  <si>
-    <t>مؤسسة تماضر عبدالله السباكة والكهرباء</t>
-  </si>
-  <si>
-    <t>مبلط سيراميك ورخام</t>
-  </si>
-  <si>
-    <t>مؤسسة التنمية السريعة لمواد البناء والسباكة والكهرباء</t>
-  </si>
-  <si>
-    <t>محمد فتح الدين عيسى العقيلي للسباكة والكهرباء</t>
-  </si>
-  <si>
-    <t>القفاري للأدوات الصحية ( مغاسل رخام - مغاسل ديكور - خلاطات مغاسل )</t>
+    <t>مؤسسة باعبدالل...</t>
+  </si>
+  <si>
+    <t>شركة منار الاس...</t>
+  </si>
+  <si>
+    <t>مستودع أسوار ا...</t>
+  </si>
+  <si>
+    <t>مؤسسة جملة الم...</t>
+  </si>
+  <si>
+    <t>ورشة نيلوفر ال...</t>
+  </si>
+  <si>
+    <t>Abdulaziz A Al...</t>
+  </si>
+  <si>
+    <t>مؤسسة هالة الد...</t>
+  </si>
+  <si>
+    <t>شركه المدى الم...</t>
+  </si>
+  <si>
+    <t>دهانات الجزيرة...</t>
+  </si>
+  <si>
+    <t>المكان للرخام ...</t>
+  </si>
+  <si>
+    <t>Electrical too...</t>
+  </si>
+  <si>
+    <t>مؤسسة بريق الر...</t>
+  </si>
+  <si>
+    <t>مؤسسة تماضر عب...</t>
+  </si>
+  <si>
+    <t>مبلط سيراميك و...</t>
+  </si>
+  <si>
+    <t>مؤسسة التنمية ...</t>
+  </si>
+  <si>
+    <t>محمد فتح الدين...</t>
+  </si>
+  <si>
+    <t>القفاري للأدوا...</t>
   </si>
   <si>
     <t>دهانات تكنو</t>
   </si>
   <si>
-    <t>الواحة الحمراء للسباكة والكهرباء</t>
-  </si>
-  <si>
-    <t>مؤسسه سعود العتيبي البورسلان والسيراميك</t>
-  </si>
-  <si>
-    <t>مؤسسة واحة النخيل لبيع مواد البناء</t>
-  </si>
-  <si>
-    <t>مؤسسة الفولاذ للتجارة مواد البناء وحديد تسليح واخشاب</t>
-  </si>
-  <si>
-    <t>مصنع السعيد للزجاج والسكريت (العمري)</t>
-  </si>
-  <si>
-    <t>مدار لمواد البناء</t>
-  </si>
-  <si>
-    <t>مصنع أنظمة بدائل البناء</t>
+    <t>الواحة الحمراء...</t>
+  </si>
+  <si>
+    <t>مؤسسه سعود الع...</t>
+  </si>
+  <si>
+    <t>مؤسسة واحة الن...</t>
+  </si>
+  <si>
+    <t>مؤسسة الفولاذ ...</t>
+  </si>
+  <si>
+    <t>مصنع السعيد لل...</t>
+  </si>
+  <si>
+    <t>مدار لمواد الب...</t>
+  </si>
+  <si>
+    <t>مصنع أنظمة بدا...</t>
   </si>
   <si>
     <t>مكه</t>
@@ -488,37 +188,31 @@
     <t>دهانات دايروب</t>
   </si>
   <si>
-    <t>مؤسسة بريق الاسطح للتجارة</t>
-  </si>
-  <si>
-    <t>مؤسسة التجارية للدهانات</t>
-  </si>
-  <si>
-    <t>دهانات الجزيرة - Jazeera Paints معرض الحرمين</t>
-  </si>
-  <si>
-    <t>معرض و مستودع سيلين للسيراميك</t>
-  </si>
-  <si>
-    <t>الالوان الدولية لاصباغ السيارات International colors For Car Paints</t>
-  </si>
-  <si>
-    <t>دهانات اوسكار بن لادن</t>
-  </si>
-  <si>
-    <t>شركة الاسناد التجاريه ESCO - Alesnad Company</t>
-  </si>
-  <si>
-    <t>مؤسسة قصرك المميز للسيراميك والرخام</t>
-  </si>
-  <si>
-    <t>دهانات الجزيرة - Jazeera Paints معرض ولي العهد</t>
-  </si>
-  <si>
-    <t>شركة الرافعات الدولية للمعدات التشغيلية</t>
-  </si>
-  <si>
-    <t>البيت الراقي للسيراميك 2</t>
+    <t>مؤسسة بريق الا...</t>
+  </si>
+  <si>
+    <t>مؤسسة التجارية...</t>
+  </si>
+  <si>
+    <t>معرض و مستودع ...</t>
+  </si>
+  <si>
+    <t>الالوان الدولي...</t>
+  </si>
+  <si>
+    <t>دهانات اوسكار ...</t>
+  </si>
+  <si>
+    <t>شركة الاسناد ا...</t>
+  </si>
+  <si>
+    <t>مؤسسة قصرك الم...</t>
+  </si>
+  <si>
+    <t>شركة الرافعات ...</t>
+  </si>
+  <si>
+    <t>البيت الراقي ل...</t>
   </si>
   <si>
     <t>AFiFi Solar</t>
@@ -527,139 +221,136 @@
     <t>مصدر</t>
   </si>
   <si>
-    <t>دهانات الجزيرة - Jazeera Paints معرض حي المطار ( وكيل )</t>
-  </si>
-  <si>
-    <t>للسباكةوالكهرباء ومواد البناء</t>
-  </si>
-  <si>
-    <t>مواد بناء رمل وسمنت</t>
-  </si>
-  <si>
-    <t>أساس لمواد البناء</t>
+    <t>للسباكةوالكهرب...</t>
+  </si>
+  <si>
+    <t>مواد بناء رمل ...</t>
+  </si>
+  <si>
+    <t>أساس لمواد الب...</t>
   </si>
   <si>
     <t>مؤسسة الوقادي</t>
   </si>
   <si>
-    <t>دهانات جوتن بتبوك</t>
+    <t>دهانات جوتن بت...</t>
   </si>
   <si>
     <t>دهان بويه جدة</t>
   </si>
   <si>
-    <t>مؤسسة دانية القحطاني للأدوات الصحية</t>
-  </si>
-  <si>
-    <t>بقشان للدهانات</t>
+    <t>مؤسسة دانية ال...</t>
+  </si>
+  <si>
+    <t>بقشان للدهانات...</t>
   </si>
   <si>
     <t>دهانات الشبح</t>
   </si>
   <si>
-    <t>تاج التنمية للطاقة الشمسية</t>
-  </si>
-  <si>
-    <t>محل مواد صحيه وادوات نظافة</t>
+    <t>تاج التنمية لل...</t>
+  </si>
+  <si>
+    <t>محل مواد صحيه ...</t>
   </si>
   <si>
     <t>Shop</t>
   </si>
   <si>
-    <t>مؤسسة خبراءالعزل</t>
-  </si>
-  <si>
-    <t>للسباكة والكهرباء بيع وصيانة</t>
-  </si>
-  <si>
-    <t>افاق لمواد البناء</t>
-  </si>
-  <si>
-    <t>الامانه لمواد البناء</t>
-  </si>
-  <si>
-    <t>الونيس للتجارة</t>
-  </si>
-  <si>
-    <t>مؤسسة قصرالمنامة للتجارة</t>
-  </si>
-  <si>
-    <t>مؤسسة صروح الشرقية</t>
-  </si>
-  <si>
-    <t>شركة الطوب الأحمر السعودي فرع السنابل</t>
-  </si>
-  <si>
-    <t>المحترف للحجر الطبيعي</t>
-  </si>
-  <si>
-    <t>مؤسسه منصور الغامدي البدوي للسباكه</t>
-  </si>
-  <si>
-    <t>مجموعة الخضراء لمواد البناء</t>
-  </si>
-  <si>
-    <t>شركة بناء المتحدة للتجارة buc</t>
-  </si>
-  <si>
-    <t>شركة مجموعة الجذور العربية</t>
+    <t>مؤسسة خبراءالع...</t>
+  </si>
+  <si>
+    <t>للسباكة والكهر...</t>
+  </si>
+  <si>
+    <t>افاق لمواد الب...</t>
+  </si>
+  <si>
+    <t>الامانه لمواد ...</t>
+  </si>
+  <si>
+    <t>الونيس للتجارة...</t>
+  </si>
+  <si>
+    <t>مؤسسة قصرالمنا...</t>
+  </si>
+  <si>
+    <t>مؤسسة صروح الش...</t>
+  </si>
+  <si>
+    <t>شركة الطوب الأ...</t>
+  </si>
+  <si>
+    <t>المحترف للحجر ...</t>
+  </si>
+  <si>
+    <t>مؤسسه منصور ال...</t>
+  </si>
+  <si>
+    <t>مجموعة الخضراء...</t>
+  </si>
+  <si>
+    <t>شركة بناء المت...</t>
+  </si>
+  <si>
+    <t>شركة مجموعة ال...</t>
   </si>
   <si>
     <t>دهانات سوكم</t>
   </si>
   <si>
-    <t>وردة نمار للسيراميك</t>
-  </si>
-  <si>
-    <t>شركة الراجحي للصناعة والتجارة الوقفية</t>
-  </si>
-  <si>
-    <t>جوتن | JOTUN - Jannat Alalwan</t>
-  </si>
-  <si>
-    <t>شركة عبدالله وعبدالرحمن الدحيم للمواد البناء</t>
-  </si>
-  <si>
-    <t>مؤسسة محمد مشبب القحطاني للسباكة والكهرباء</t>
-  </si>
-  <si>
-    <t>شركة بيت السلطانة للتجارة</t>
-  </si>
-  <si>
-    <t>دهانات جوتن Jotun Paints</t>
-  </si>
-  <si>
-    <t>مؤسسة النضال للسباكة</t>
-  </si>
-  <si>
-    <t>سناء الجنوب لمواد البناء</t>
-  </si>
-  <si>
-    <t>مواد البناء والكهرباء</t>
-  </si>
-  <si>
-    <t>الشهداء الشمالية شارع عشرين</t>
-  </si>
-  <si>
-    <t>متجر مواد بناء</t>
-  </si>
-  <si>
-    <t>مورد مواد البناء</t>
-  </si>
-  <si>
-    <t>مورد خرسانة جاهزة</t>
-  </si>
-  <si>
-    <t>متجر مستلزمات صناعة البناء</t>
+    <t>وردة نمار للسي...</t>
+  </si>
+  <si>
+    <t>شركة الراجحي ل...</t>
+  </si>
+  <si>
+    <t>جوتن | JOTUN -...</t>
+  </si>
+  <si>
+    <t>شركة عبدالله و...</t>
+  </si>
+  <si>
+    <t>مؤسسة محمد مشب...</t>
+  </si>
+  <si>
+    <t>شركة بيت السلط...</t>
+  </si>
+  <si>
+    <t>دهانات جوتن Jo...</t>
+  </si>
+  <si>
+    <t>مؤسسة النضال ل...</t>
+  </si>
+  <si>
+    <t>سناء الجنوب لم...</t>
+  </si>
+  <si>
+    <t>مواد البناء وا...</t>
+  </si>
+  <si>
+    <t>الشهداء الشمال...</t>
+  </si>
+  <si>
+    <t>متجر مواد بناء...</t>
+  </si>
+  <si>
+    <t>مورد مواد البن...</t>
+  </si>
+  <si>
+    <t>مورد خرسانة جا...</t>
+  </si>
+  <si>
+    <t>متجر مستلزمات ...</t>
   </si>
   <si>
     <t>متجر دهانات</t>
   </si>
   <si>
-    <t>خدمة تأجير معدات البناء</t>
-  </si>
-  <si>
-    <t>سوق مواد البناء</t>
+    <t>خدمة تأجير معد...</t>
+  </si>
+  <si>
+    <t>سوق مواد البنا...</t>
   </si>
   <si>
     <t>مورد رخام</t>
@@ -668,16 +359,16 @@
     <t>متجر بلاط</t>
   </si>
   <si>
-    <t>محل زجاج ومرايا</t>
-  </si>
-  <si>
-    <t>مورد معدات البناء</t>
-  </si>
-  <si>
-    <t>شركة طاقة شمسية</t>
-  </si>
-  <si>
-    <t>مورد معدّات الطاقة الشمسية</t>
+    <t>محل زجاج ومراي...</t>
+  </si>
+  <si>
+    <t>مورد معدات الب...</t>
+  </si>
+  <si>
+    <t>شركة طاقة شمسي...</t>
+  </si>
+  <si>
+    <t>مورد معدّات ال...</t>
   </si>
   <si>
     <t>4.0</t>
@@ -884,298 +575,286 @@
     <t>68</t>
   </si>
   <si>
-    <t>RV63+WM6، الربوة، دومة الجندل 74664، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك سعود، ابحرالشماليه، جدة 23811، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الشارع الرابع، البايونية، الخبر 34621، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JQ5P+3FH، المناخ، الرياض 14311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>As Sunawbar Al Khaleej Riyadh Riyadh Province13224, الرياض المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8636+2JR، طريق الأمير فيصل بن فهد ، البندرية، البندرية، الخبر 34424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2249 شارع الملك عبدالعزيز، المنطقة الصناعية الاولى، الخفجي 39253، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7C89+V4M، الشهداء الشمالية، الطائف 26513، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JGM3+H2R سوق قدیم حئ خالدیہ, الخالدية شمال، رفحاء 76321، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7609 الملك سعود، حي الحزام الذهبي، FMDE3510، 3510، المبرز 36422، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الزراعة، المحطة، حائل 55424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Al ajaweed، الاجاويد، جدة 22442، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك سعود، حي الخالدية، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالله، العنابس، المدينة المنورة 42312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3730 الشفا، ظهرة لبن الرياض 13782 7406 نجد، 7406، ظهرة لبن، الرياض 13782، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9XV3+V4Q، الفيصلية، حفر الباطن 39951، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6883، مكة 24421، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8974 طريق الملك فهد بن عبدالعزيز، المطر، سكاكا 72341، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>XHQ4+JVR، بنبان، الرياض 13358، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8248 طريق الملك عبد العزيز، حي السالمية، بريدة 52335 3207 المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>إشارة قصر الذكريات, طريق الصحابة، مدينة, فرع غرناطة الرياض –حي المونيسية, الرياض المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road خميس مشيط 62497، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8PVJ+G5J، خميس مشيط 62481، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>F25V+JX7، الخضرية، الدمام 32436، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الجبيل البلد، الجبيل 35514، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8270، الكعكية، 24352،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الخرج صناعيه المروه الراشديه مقابل الجوازات، الخرج 16245، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>H6C5+537، طريق خميس- السليل، طريب 62828، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JR29+PM2، المناخ، الرياض 14314، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>27F8+VWF، عمر بن الخطاب، البطحاء، املج 48312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>المحمديه جيزان، طريق، صبيا، العدايا المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع المستشفى، بيش 87311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>RQ97+923، المونسية، الرياض 13246، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الشميسي، ام سليم، الرياض 12745، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4185 الامير محمد بن فهد، حي الرقيقة، FHGA9452، 9452، الهفوف‎ 36441، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>MPC5+RJ7، شارع الأمير عبدالرحمن بن عبدالعزيز، حي المربع، الوزارات، الرياض 12626، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الزهور، جازان 82741، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4265، بطحاء قريش، مكة 24362 8372، 21755، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>PRJ8+V92، النهضة،، الرياض 14231، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع خالد بن الوليد، قرطبة، الرياض 12211، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5449 الامير نواف، البندريه، الهفوف, 7156, المبرز 36441، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي, العارض، شارع الحارث ابن سليل، الرياض 13345، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8988، المدينة الصناعية بعسير، خميس مشيط 62453 4973،، خميس مشيط 62456، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الرياض، جدة 23839، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>QPXR+XGH، طريق الدمام الفرعي - حي غرناطة، غرناطة، الرياض 13242، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CQRW+64H، الزاهر، مكة 24222، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حصين بن المعلي، الرانوناء، المدينة المنورة 42394، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7PWH+W97 حي، الروضة، خميس مشيط 62461، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالعزيز، جازان 85298، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>إيدوين، شارع الثامن عشر، حي النخيل، النخيل، الدمام 32244، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الحرمين , الطريق الدائري السريع، ابرق الرغامة،، جدة 22261، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، المناخ، الرياض 14314، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>صناعية، الخضرية، الدمام 32435، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، 4569 بن لادن، الروابي، 4569، 7669، جدة 22345، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3034-2986 الطفيل بن عمرو -رضي الله عنه-، الصناعية القديمة،، الصناعية القديمة، الرياض 12871، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8113 طريق الخرج، العزيزية، 3845، الرياض 14511، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8MJM+G56 مخطط، ولي العهد، مكة 24567، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>H5J7+5WR حي، صاري فرعي، السلامة، جدة 23434، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، طريق مكة القديم، الفضل، جدة 22365، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك فهد، صناعية الفوازية، الخبر 31952، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق ابي بكر الصديق الفرعي، العارض، الرياض 13335، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالعزيز، الملك فهد، الرس 58851، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>QJMJ+GVP، طريق الملك عبدالعزيز،، العقيق، الرياض 13515، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>RFGA6141 2850 شارع خالد بن الوليد، غرناطة، 6141، الرياض 13242، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CH9R+927, شارع الخوارزمي, حي المروج, تبوك 47312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7C96+35W، حوايا الشمالية، الطائف 26513، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>العزيزية القديمة، تبوك 47912، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الياقوت، JHYA7269، 7269 السليمات، 4799، جدة 23824، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HJGM+3QW، شارع حمزة بن عبدالمطلب، الزهرة، الرياض 12984، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>G58J+2JM، طريق المدينة المنوره _ حي الشرفيه - مقابل محطة الدريس، الرويس، جدة 23214، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>F6R2+8CJ، طريق الملك فهد فرعي, حي الكندرة، جدة 22242، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>عمر المختار، العمل، الرياض 12643، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>93WX+38P حي، الجامعيين، الدمام 32254، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>FM24+4FW، الكلابية، جواثا 36349، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>WC82+C2Q، الملك عبدالله، المجمعة 15365، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JPRH+RJJ, شارع محمد بن فارس، حي, ثليم، الرياض 12646، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي, 8686 حريث الطائي، 4302، المغيسلة، 42315،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4790، 6106 حي، القرينية، جدة 22535، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الملك عبدالعزيز، حي المحمدية، الخفجي 39254، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JPJW+JCV، شارع العنوز، الصناعية القديمة، الرياض 12871، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>السريع،الزهور، طريق الظهران الجبيل، سيهات‎ 32437، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8258، جدة 22444، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق مكة القديم، طرق، جدة المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7686، 3157 طريق مكة القديم، حي الفاروق، جدة 22349 المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>15 65723، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك فيصل، تبوك 21474، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7PWC+V2C، شارع الملك فيصل، الحزام، الخزان، خميس مشيط 62461، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>F7H7+JPJ، بن لادن، الروابي، جدة 22345، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>المناخ، الرياض 14311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق المدينة تبوك، الفيصلية، خيبر 43425، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2772, 7877، حي الامير فواز الجنوبى، Al Amir Fawaz Al Janouby District, جدة 22441، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>القيروان،، RRQA4290، 4290 طريق الملك سلمان بن عبدالعزيز، 6999، حي، الرياض 13532، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6789 احمد بن الخطاب، حي طويق، RKWB2749، 2749، الرياض 14927، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الجبل، حي البلد، الجبيل 35514، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8355، 2647 البلدية، حي العزيزية، جدة 23334 المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>مخططات الغويلا الزراعية 66234، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالعزيز، الطريف الجديد، الدرعية 13712، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>69FJ+W87، حي الاخباب، الطائف 26724، المملكة العربية السعودية</t>
+    <t>RV63+WM6، الرب...</t>
+  </si>
+  <si>
+    <t>طريق الملك سعو...</t>
+  </si>
+  <si>
+    <t>الشارع الرابع،...</t>
+  </si>
+  <si>
+    <t>JQ5P+3FH، المن...</t>
+  </si>
+  <si>
+    <t>As Sunawbar Al...</t>
+  </si>
+  <si>
+    <t>8636+2JR، طريق...</t>
+  </si>
+  <si>
+    <t>2249 شارع المل...</t>
+  </si>
+  <si>
+    <t>7C89+V4M، الشه...</t>
+  </si>
+  <si>
+    <t>JGM3+H2R سوق ق...</t>
+  </si>
+  <si>
+    <t>7609 الملك سعو...</t>
+  </si>
+  <si>
+    <t>الزراعة، المحط...</t>
+  </si>
+  <si>
+    <t>Al ajaweed، ال...</t>
+  </si>
+  <si>
+    <t>طريق الملك عبد...</t>
+  </si>
+  <si>
+    <t>3730 الشفا، ظه...</t>
+  </si>
+  <si>
+    <t>9XV3+V4Q، الفي...</t>
+  </si>
+  <si>
+    <t>6883، مكة 2442...</t>
+  </si>
+  <si>
+    <t>8974 طريق المل...</t>
+  </si>
+  <si>
+    <t>XHQ4+JVR، بنبا...</t>
+  </si>
+  <si>
+    <t>8248 طريق المل...</t>
+  </si>
+  <si>
+    <t>إشارة قصر الذك...</t>
+  </si>
+  <si>
+    <t>Unnamed Road خ...</t>
+  </si>
+  <si>
+    <t>8PVJ+G5J، خميس...</t>
+  </si>
+  <si>
+    <t>F25V+JX7، الخض...</t>
+  </si>
+  <si>
+    <t>الجبيل البلد، ...</t>
+  </si>
+  <si>
+    <t>8270، الكعكية،...</t>
+  </si>
+  <si>
+    <t>الخرج صناعيه ا...</t>
+  </si>
+  <si>
+    <t>H6C5+537، طريق...</t>
+  </si>
+  <si>
+    <t>JR29+PM2، المن...</t>
+  </si>
+  <si>
+    <t>27F8+VWF، عمر ...</t>
+  </si>
+  <si>
+    <t>المحمديه جيزان...</t>
+  </si>
+  <si>
+    <t>شارع المستشفى،...</t>
+  </si>
+  <si>
+    <t>RQ97+923، المو...</t>
+  </si>
+  <si>
+    <t>الشميسي، ام سل...</t>
+  </si>
+  <si>
+    <t>4185 الامير مح...</t>
+  </si>
+  <si>
+    <t>MPC5+RJ7، شارع...</t>
+  </si>
+  <si>
+    <t>الزهور، جازان ...</t>
+  </si>
+  <si>
+    <t>4265، بطحاء قر...</t>
+  </si>
+  <si>
+    <t>PRJ8+V92، النه...</t>
+  </si>
+  <si>
+    <t>شارع خالد بن ا...</t>
+  </si>
+  <si>
+    <t>5449 الامير نو...</t>
+  </si>
+  <si>
+    <t>حي, العارض، شا...</t>
+  </si>
+  <si>
+    <t>8988، المدينة ...</t>
+  </si>
+  <si>
+    <t>الرياض، جدة 23...</t>
+  </si>
+  <si>
+    <t>QPXR+XGH، طريق...</t>
+  </si>
+  <si>
+    <t>CQRW+64H، الزا...</t>
+  </si>
+  <si>
+    <t>حصين بن المعلي...</t>
+  </si>
+  <si>
+    <t>7PWH+W97 حي، ا...</t>
+  </si>
+  <si>
+    <t>إيدوين، شارع ا...</t>
+  </si>
+  <si>
+    <t>طريق الحرمين ,...</t>
+  </si>
+  <si>
+    <t>حي، المناخ، ال...</t>
+  </si>
+  <si>
+    <t>صناعية، الخضري...</t>
+  </si>
+  <si>
+    <t>حي، 4569 بن لا...</t>
+  </si>
+  <si>
+    <t>3034-2986 الطف...</t>
+  </si>
+  <si>
+    <t>8113 طريق الخر...</t>
+  </si>
+  <si>
+    <t>8MJM+G56 مخطط،...</t>
+  </si>
+  <si>
+    <t>H5J7+5WR حي، ص...</t>
+  </si>
+  <si>
+    <t>حي، طريق مكة ا...</t>
+  </si>
+  <si>
+    <t>طريق الملك فهد...</t>
+  </si>
+  <si>
+    <t>طريق ابي بكر ا...</t>
+  </si>
+  <si>
+    <t>QJMJ+GVP، طريق...</t>
+  </si>
+  <si>
+    <t>RFGA6141 2850 ...</t>
+  </si>
+  <si>
+    <t>CH9R+927, شارع...</t>
+  </si>
+  <si>
+    <t>7C96+35W، حواي...</t>
+  </si>
+  <si>
+    <t>العزيزية القدي...</t>
+  </si>
+  <si>
+    <t>الياقوت، JHYA7...</t>
+  </si>
+  <si>
+    <t>HJGM+3QW، شارع...</t>
+  </si>
+  <si>
+    <t>G58J+2JM، طريق...</t>
+  </si>
+  <si>
+    <t>F6R2+8CJ، طريق...</t>
+  </si>
+  <si>
+    <t>عمر المختار، ا...</t>
+  </si>
+  <si>
+    <t>93WX+38P حي، ا...</t>
+  </si>
+  <si>
+    <t>FM24+4FW، الكل...</t>
+  </si>
+  <si>
+    <t>WC82+C2Q، المل...</t>
+  </si>
+  <si>
+    <t>JPRH+RJJ, شارع...</t>
+  </si>
+  <si>
+    <t>حي, 8686 حريث ...</t>
+  </si>
+  <si>
+    <t>4790، 6106 حي،...</t>
+  </si>
+  <si>
+    <t>شارع الملك عبد...</t>
+  </si>
+  <si>
+    <t>JPJW+JCV، شارع...</t>
+  </si>
+  <si>
+    <t>السريع،الزهور،...</t>
+  </si>
+  <si>
+    <t>8258، جدة 2244...</t>
+  </si>
+  <si>
+    <t>طريق مكة القدي...</t>
+  </si>
+  <si>
+    <t>7686، 3157 طري...</t>
+  </si>
+  <si>
+    <t>15 65723، المم...</t>
+  </si>
+  <si>
+    <t>طريق الملك فيص...</t>
+  </si>
+  <si>
+    <t>7PWC+V2C، شارع...</t>
+  </si>
+  <si>
+    <t>F7H7+JPJ، بن ل...</t>
+  </si>
+  <si>
+    <t>المناخ، الرياض...</t>
+  </si>
+  <si>
+    <t>طريق المدينة ت...</t>
+  </si>
+  <si>
+    <t>2772, 7877، حي...</t>
+  </si>
+  <si>
+    <t>القيروان،، RRQ...</t>
+  </si>
+  <si>
+    <t>6789 احمد بن ا...</t>
+  </si>
+  <si>
+    <t>طريق الجبل، حي...</t>
+  </si>
+  <si>
+    <t>8355، 2647 الب...</t>
+  </si>
+  <si>
+    <t>مخططات الغويلا...</t>
+  </si>
+  <si>
+    <t>69FJ+W87، حي ا...</t>
   </si>
   <si>
     <t>+966146222416</t>
@@ -1247,7 +926,7 @@
     <t>+966559269917</t>
   </si>
   <si>
-    <t>+9668001231233</t>
+    <t>+9668001231233...</t>
   </si>
   <si>
     <t>+966505770085</t>
@@ -1403,70 +1082,67 @@
     <t>+966535847718</t>
   </si>
   <si>
-    <t>http://www.alhussaini.com/</t>
-  </si>
-  <si>
-    <t>https://baytalebaa.com/</t>
-  </si>
-  <si>
-    <t>https://www.jotun.com/me/en</t>
-  </si>
-  <si>
-    <t>http://www.manaraleskan.com.sa/</t>
-  </si>
-  <si>
-    <t>http://www.abdulazizaljubran.com/</t>
-  </si>
-  <si>
-    <t>https://jazeerapaints.com/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Tpigi</t>
-  </si>
-  <si>
-    <t>http://www.gafary.sa/</t>
-  </si>
-  <si>
-    <t>http://technopaints.com/</t>
-  </si>
-  <si>
-    <t>https://www.madar.com/?utm_source=gmb</t>
-  </si>
-  <si>
-    <t>http://www.dyrup.com.sa/</t>
-  </si>
-  <si>
-    <t>http://jazeerapaints.com/</t>
-  </si>
-  <si>
-    <t>https://intercolors.net/</t>
-  </si>
-  <si>
-    <t>http://oscarpaints.com/</t>
-  </si>
-  <si>
-    <t>http://www.afifisolar.com/</t>
-  </si>
-  <si>
-    <t>http://www.masdar.co/</t>
-  </si>
-  <si>
-    <t>https://salla.sa/taj-altanmia</t>
-  </si>
-  <si>
-    <t>http://www.alamana.com.sa/</t>
-  </si>
-  <si>
-    <t>http://www.redbricks.com.sa/</t>
-  </si>
-  <si>
-    <t>http://arabian-roots.com/#</t>
-  </si>
-  <si>
-    <t>http://www.rajhibuild.com/</t>
-  </si>
-  <si>
-    <t>https://www.jotun.com/</t>
+    <t>http://www.alh...</t>
+  </si>
+  <si>
+    <t>https://baytal...</t>
+  </si>
+  <si>
+    <t>https://www.jo...</t>
+  </si>
+  <si>
+    <t>http://www.man...</t>
+  </si>
+  <si>
+    <t>http://www.abd...</t>
+  </si>
+  <si>
+    <t>https://jazeer...</t>
+  </si>
+  <si>
+    <t>https://www.fa...</t>
+  </si>
+  <si>
+    <t>http://www.gaf...</t>
+  </si>
+  <si>
+    <t>http://technop...</t>
+  </si>
+  <si>
+    <t>https://www.ma...</t>
+  </si>
+  <si>
+    <t>http://www.dyr...</t>
+  </si>
+  <si>
+    <t>http://jazeera...</t>
+  </si>
+  <si>
+    <t>https://interc...</t>
+  </si>
+  <si>
+    <t>http://oscarpa...</t>
+  </si>
+  <si>
+    <t>http://www.afi...</t>
+  </si>
+  <si>
+    <t>http://www.mas...</t>
+  </si>
+  <si>
+    <t>https://salla....</t>
+  </si>
+  <si>
+    <t>http://www.ala...</t>
+  </si>
+  <si>
+    <t>http://www.red...</t>
+  </si>
+  <si>
+    <t>http://arabian...</t>
+  </si>
+  <si>
+    <t>http://www.raj...</t>
   </si>
   <si>
     <t>Company Name</t>
@@ -1490,304 +1166,298 @@
     <t>Products</t>
   </si>
   <si>
-    <t>شركة مصنع مقاييس الدقة للمعدات</t>
-  </si>
-  <si>
-    <t>مصنع الفرزه للصناعات الهندسيه</t>
-  </si>
-  <si>
-    <t>شركة ساف للتقنيات المحدودة</t>
-  </si>
-  <si>
-    <t>مصنع السواري للوحات الكهربائية</t>
-  </si>
-  <si>
-    <t>شركة مصنع الشروق للدهانات المحدودة</t>
-  </si>
-  <si>
-    <t>مصنع بلاسكو للصناعات البلاستيكية فرع شركة صالح عبدالعزيز الراجحي</t>
-  </si>
-  <si>
-    <t>مصنع فرع شركة أحمد حسن المرهون و إخوانه للمنتجات الاسمنية</t>
-  </si>
-  <si>
-    <t>مصنع مازن محمد علي المصباح للتصنيع</t>
-  </si>
-  <si>
-    <t>مصنع حدايد السعودية للصناعات الثقيلة</t>
-  </si>
-  <si>
-    <t>شركة مصنع فاروس لزجاج السيكوريت</t>
-  </si>
-  <si>
-    <t>شركة مصنع الرياض للموبيليات</t>
-  </si>
-  <si>
-    <t>مصنع مريع سلمان أل حنبوط للمنتجات الاسمنتية</t>
-  </si>
-  <si>
-    <t>مصنع شركة الصناعات المطورة للاعمال الحديدية المحدودة</t>
-  </si>
-  <si>
-    <t>مصنع المشاري الغالي للمشغولات الحديدية والألمنيوم</t>
-  </si>
-  <si>
-    <t>شركة أباحسين المحدودة للصناعات المتخصصة</t>
-  </si>
-  <si>
-    <t>مصنع عبدالرحمن مسعد العتيبي للبلوك</t>
-  </si>
-  <si>
-    <t>مصنع زخارف الفيصلية للصناعة</t>
-  </si>
-  <si>
-    <t>شركة مصنع صلصال للخزف والسيراميك</t>
-  </si>
-  <si>
-    <t>مصنع المختار لخزانات المياة</t>
-  </si>
-  <si>
-    <t>مصنع النهاري لصناعة الإعلان والحديد</t>
-  </si>
-  <si>
-    <t>مصنع مشبب حسين القحطاني للمشغولات المعدنية</t>
-  </si>
-  <si>
-    <t>مصنع علي عبدالله آل غريس القحطاني للبلك الأسمنتي المعزول</t>
-  </si>
-  <si>
-    <t>مصنع منتجات ريما للبلاستيك</t>
-  </si>
-  <si>
-    <t>مصنع سعد سعيد الزهراني للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع عبدالرحمن محمد زيدان لتصنيع المعدات وتشكيل المعادن</t>
-  </si>
-  <si>
-    <t>مصنع الفولاذ الحديث</t>
-  </si>
-  <si>
-    <t>مصنع روائع التشييد للبلك</t>
-  </si>
-  <si>
-    <t>مصنع زجاج الدولية للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع الشرق والغرب</t>
-  </si>
-  <si>
-    <t>مصنع شركة طيبه المتحدون للبلوك</t>
-  </si>
-  <si>
-    <t>مصنع فيصل سعيد القحطاني للبلوك</t>
-  </si>
-  <si>
-    <t>مصنع محمد مسلط العتيبي للبلك</t>
-  </si>
-  <si>
-    <t>شركة وردة المطابخ للصناعات المعدنية</t>
-  </si>
-  <si>
-    <t>مصنع شركة الأول للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع ياد للأجزاء الخرسانية</t>
-  </si>
-  <si>
-    <t>مصنع شركة عبدالجواد عبدالهادي الدويك واولاده للصناعات المعدنية المحدودة</t>
-  </si>
-  <si>
-    <t>مصنع أمواج اللدائن للمنتجات البلاستيكية</t>
-  </si>
-  <si>
-    <t>مصنع محمد سيف النواش للمقطورات الحديدية</t>
-  </si>
-  <si>
-    <t>المصنع السعودي لمجارى الهواء</t>
-  </si>
-  <si>
-    <t>فرع شركة القصر جلاس الصناعية</t>
-  </si>
-  <si>
-    <t>مصنع الحازم للصناعات المعدنية</t>
-  </si>
-  <si>
-    <t>شركة مصنع سعودي ثاليت للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع شركة الرمال الدولية للمقطورات والصهاريج</t>
-  </si>
-  <si>
-    <t>مجمع ابوذياب الصناعي - مصنع البلوك</t>
-  </si>
-  <si>
-    <t>شـركة مجموعة الغندورة الصناعية المحدودة</t>
-  </si>
-  <si>
-    <t>مصانع الميمني للطوب الاحمر والمنتوجات الفخارية</t>
-  </si>
-  <si>
-    <t>مصانع الجزيرة للصناعات الهندسية</t>
-  </si>
-  <si>
-    <t>شركة مصنع الاتحاد للمكثفات</t>
-  </si>
-  <si>
-    <t>فرع شركة جوتن السعودية المحدودة</t>
-  </si>
-  <si>
-    <t>شركة المصنع السعودي للبراميل</t>
-  </si>
-  <si>
-    <t>شركة مصنع رامه للألمنيوم وطلاء المعادن</t>
-  </si>
-  <si>
-    <t>مصنع جنا لبنان للحداده</t>
-  </si>
-  <si>
-    <t>مصنع روابي مناخ للمنتجات الاسمنتيه</t>
-  </si>
-  <si>
-    <t>مصنع أحمد جميل زقزوق للمنتجات المعدنية</t>
-  </si>
-  <si>
-    <t>مصنع عبدالله عابدين البخاري للمنتجات الاسمنتية</t>
-  </si>
-  <si>
-    <t>مجموعة الشمراني الصناعية</t>
-  </si>
-  <si>
-    <t>شركة الرائد للقضبان وقطع الغيار المعدنية</t>
-  </si>
-  <si>
-    <t>مصنع نتولا للحديد</t>
-  </si>
-  <si>
-    <t>مصنع مكة الآلي الحديث</t>
-  </si>
-  <si>
-    <t>مصنع حديد الفجر للصناعات الحديديه</t>
-  </si>
-  <si>
-    <t>فرع شركة الأهلية المتطورة للخرسانة الجاهزة</t>
-  </si>
-  <si>
-    <t>مصنع شركة الانشاء و التعمير للمباني الخرسانية الجاهزة</t>
-  </si>
-  <si>
-    <t>شركة مكمن العربية للصناعة</t>
-  </si>
-  <si>
-    <t>شركة مصنع بنزرت للمنتجات الخشبية المحدودة</t>
-  </si>
-  <si>
-    <t>المصنع العربي لكيماويات مواد البناء</t>
-  </si>
-  <si>
-    <t>مصنع شركة سحر الرياض للالمنيوم</t>
-  </si>
-  <si>
-    <t>مصنع شركة اسيكو السعودية المحدودة</t>
-  </si>
-  <si>
-    <t>شركة صناعة المنتجات الخرسانية السعودية</t>
-  </si>
-  <si>
-    <t>مصنع دلمون للصناعات الكيميائية</t>
-  </si>
-  <si>
-    <t>مصنع شركة الداود للبلوك والخرسانة الجاهزة</t>
-  </si>
-  <si>
-    <t>مصنع الزخارف الحديدية للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع شركة الدريس للابواب والاعمال الخشبية</t>
-  </si>
-  <si>
-    <t>شركة الأسمنت الأبيض السعودي</t>
-  </si>
-  <si>
-    <t>مصنع سلمان علي الوكيل لأنظمة الالمنيوم</t>
-  </si>
-  <si>
-    <t>مصنع طلبيات لمعالجة المعادن السطحية للصناعه</t>
-  </si>
-  <si>
-    <t>شركة صناعة السيراميك العربية(دار) المحدودة</t>
-  </si>
-  <si>
-    <t>شركة المصنع السعودي لمستلزمات الشبكة الهاتفية و الكهربائية</t>
-  </si>
-  <si>
-    <t>مصنع شركة الحسين والعفالق للخرسانة الجاهزة والبلك الأسمنتي</t>
-  </si>
-  <si>
-    <t>شركة الرخام الحجري المحدوده شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>مؤسسة الفن الالماني للاعمال المعدنية</t>
-  </si>
-  <si>
-    <t>مصنع شركة الملصقات الذهبي</t>
-  </si>
-  <si>
-    <t>مصنع الكفاح للخرسانة الجاهزة</t>
-  </si>
-  <si>
-    <t>شركة اتحاد مصانع الاسلاك - فرع بريدة</t>
-  </si>
-  <si>
-    <t>شركة مصنع مساعد للوحات التوزيع الكهربائية</t>
-  </si>
-  <si>
-    <t>مصنع انظمة الإعلان</t>
-  </si>
-  <si>
-    <t>مصنع عبدالكريم نهار الرمان للخرسانة الاسمنتية</t>
-  </si>
-  <si>
-    <t>مصنع شركة بن لادن الصناعية المحدودة</t>
-  </si>
-  <si>
-    <t>مصنع الشركة السعودية للصناعات الميكانيكية</t>
-  </si>
-  <si>
-    <t>مصنع الحرفي الماهر للصناعات الخشبية</t>
-  </si>
-  <si>
-    <t>مصنع شركة الخبرة الدولية للصناعات الخشبية</t>
-  </si>
-  <si>
-    <t>شركة منيف بن عامر النهدي وشريكه للتجارة والصناعة المحدودة</t>
-  </si>
-  <si>
-    <t>مصنع جهز فهد الحربي للهياكل المعدنية</t>
-  </si>
-  <si>
-    <t>مصنع هيت للصناعة</t>
-  </si>
-  <si>
-    <t>شركة دنيا المعادن للصناعات المعدنية المحدودة</t>
-  </si>
-  <si>
-    <t>مصنع المسبك الوطني</t>
-  </si>
-  <si>
-    <t>مصنع شركة أبناء عبدالله الحناكى للمنتجات الأسمنتية</t>
-  </si>
-  <si>
-    <t>مصنع الجابرين للصناعات الحديدية والالمنيوم</t>
-  </si>
-  <si>
-    <t>شركة مصنع عالم الجودة لمنتجات الفيبر جلاس</t>
-  </si>
-  <si>
-    <t>شركة الحلول البسيطة للصناعة</t>
-  </si>
-  <si>
-    <t>مصنع الزاهد لشبكات حديد التسليح وتشكيل القضبان الحديدية</t>
+    <t>شركة مصنع مقاي...</t>
+  </si>
+  <si>
+    <t>مصنع الفرزه لل...</t>
+  </si>
+  <si>
+    <t>شركة ساف للتقن...</t>
+  </si>
+  <si>
+    <t>مصنع السواري ل...</t>
+  </si>
+  <si>
+    <t>شركة مصنع الشر...</t>
+  </si>
+  <si>
+    <t>مصنع بلاسكو لل...</t>
+  </si>
+  <si>
+    <t>مصنع فرع شركة ...</t>
+  </si>
+  <si>
+    <t>مصنع مازن محمد...</t>
+  </si>
+  <si>
+    <t>مصنع حدايد الس...</t>
+  </si>
+  <si>
+    <t>شركة مصنع فارو...</t>
+  </si>
+  <si>
+    <t>شركة مصنع الري...</t>
+  </si>
+  <si>
+    <t>مصنع مريع سلما...</t>
+  </si>
+  <si>
+    <t>مصنع شركة الصن...</t>
+  </si>
+  <si>
+    <t>مصنع المشاري ا...</t>
+  </si>
+  <si>
+    <t>شركة أباحسين ا...</t>
+  </si>
+  <si>
+    <t>مصنع عبدالرحمن...</t>
+  </si>
+  <si>
+    <t>مصنع زخارف الف...</t>
+  </si>
+  <si>
+    <t>شركة مصنع صلصا...</t>
+  </si>
+  <si>
+    <t>مصنع المختار ل...</t>
+  </si>
+  <si>
+    <t>مصنع النهاري ل...</t>
+  </si>
+  <si>
+    <t>مصنع مشبب حسين...</t>
+  </si>
+  <si>
+    <t>مصنع علي عبدال...</t>
+  </si>
+  <si>
+    <t>مصنع منتجات ري...</t>
+  </si>
+  <si>
+    <t>مصنع سعد سعيد ...</t>
+  </si>
+  <si>
+    <t>مصنع الفولاذ ا...</t>
+  </si>
+  <si>
+    <t>مصنع روائع الت...</t>
+  </si>
+  <si>
+    <t>مصنع زجاج الدو...</t>
+  </si>
+  <si>
+    <t>مصنع الشرق وال...</t>
+  </si>
+  <si>
+    <t>مصنع شركة طيبه...</t>
+  </si>
+  <si>
+    <t>مصنع فيصل سعيد...</t>
+  </si>
+  <si>
+    <t>مصنع محمد مسلط...</t>
+  </si>
+  <si>
+    <t>شركة وردة المط...</t>
+  </si>
+  <si>
+    <t>مصنع شركة الأو...</t>
+  </si>
+  <si>
+    <t>مصنع ياد للأجز...</t>
+  </si>
+  <si>
+    <t>مصنع شركة عبدا...</t>
+  </si>
+  <si>
+    <t>مصنع أمواج الل...</t>
+  </si>
+  <si>
+    <t>مصنع محمد سيف ...</t>
+  </si>
+  <si>
+    <t>المصنع السعودي...</t>
+  </si>
+  <si>
+    <t>فرع شركة القصر...</t>
+  </si>
+  <si>
+    <t>مصنع الحازم لل...</t>
+  </si>
+  <si>
+    <t>شركة مصنع سعود...</t>
+  </si>
+  <si>
+    <t>مصنع شركة الرم...</t>
+  </si>
+  <si>
+    <t>مجمع ابوذياب ا...</t>
+  </si>
+  <si>
+    <t>شـركة مجموعة ا...</t>
+  </si>
+  <si>
+    <t>مصانع الميمني ...</t>
+  </si>
+  <si>
+    <t>مصانع الجزيرة ...</t>
+  </si>
+  <si>
+    <t>شركة مصنع الات...</t>
+  </si>
+  <si>
+    <t>فرع شركة جوتن ...</t>
+  </si>
+  <si>
+    <t>شركة المصنع ال...</t>
+  </si>
+  <si>
+    <t>شركة مصنع رامه...</t>
+  </si>
+  <si>
+    <t>مصنع جنا لبنان...</t>
+  </si>
+  <si>
+    <t>مصنع روابي منا...</t>
+  </si>
+  <si>
+    <t>مصنع أحمد جميل...</t>
+  </si>
+  <si>
+    <t>مصنع عبدالله ع...</t>
+  </si>
+  <si>
+    <t>مجموعة الشمران...</t>
+  </si>
+  <si>
+    <t>شركة الرائد لل...</t>
+  </si>
+  <si>
+    <t>مصنع نتولا للح...</t>
+  </si>
+  <si>
+    <t>مصنع مكة الآلي...</t>
+  </si>
+  <si>
+    <t>مصنع حديد الفج...</t>
+  </si>
+  <si>
+    <t>فرع شركة الأهل...</t>
+  </si>
+  <si>
+    <t>مصنع شركة الان...</t>
+  </si>
+  <si>
+    <t>شركة مكمن العر...</t>
+  </si>
+  <si>
+    <t>شركة مصنع بنزر...</t>
+  </si>
+  <si>
+    <t>المصنع العربي ...</t>
+  </si>
+  <si>
+    <t>مصنع شركة سحر ...</t>
+  </si>
+  <si>
+    <t>مصنع شركة اسيك...</t>
+  </si>
+  <si>
+    <t>شركة صناعة الم...</t>
+  </si>
+  <si>
+    <t>مصنع دلمون للص...</t>
+  </si>
+  <si>
+    <t>مصنع شركة الدا...</t>
+  </si>
+  <si>
+    <t>مصنع الزخارف ا...</t>
+  </si>
+  <si>
+    <t>مصنع شركة الدر...</t>
+  </si>
+  <si>
+    <t>شركة الأسمنت ا...</t>
+  </si>
+  <si>
+    <t>مصنع سلمان علي...</t>
+  </si>
+  <si>
+    <t>مصنع طلبيات لم...</t>
+  </si>
+  <si>
+    <t>شركة صناعة الس...</t>
+  </si>
+  <si>
+    <t>مصنع شركة الحس...</t>
+  </si>
+  <si>
+    <t>شركة الرخام ال...</t>
+  </si>
+  <si>
+    <t>مؤسسة الفن الا...</t>
+  </si>
+  <si>
+    <t>مصنع شركة المل...</t>
+  </si>
+  <si>
+    <t>مصنع الكفاح لل...</t>
+  </si>
+  <si>
+    <t>شركة اتحاد مصا...</t>
+  </si>
+  <si>
+    <t>شركة مصنع مساع...</t>
+  </si>
+  <si>
+    <t>مصنع انظمة الإ...</t>
+  </si>
+  <si>
+    <t>مصنع عبدالكريم...</t>
+  </si>
+  <si>
+    <t>مصنع شركة بن ل...</t>
+  </si>
+  <si>
+    <t>مصنع الشركة ال...</t>
+  </si>
+  <si>
+    <t>مصنع الحرفي ال...</t>
+  </si>
+  <si>
+    <t>مصنع شركة الخب...</t>
+  </si>
+  <si>
+    <t>شركة منيف بن ع...</t>
+  </si>
+  <si>
+    <t>مصنع جهز فهد ا...</t>
+  </si>
+  <si>
+    <t>مصنع هيت للصنا...</t>
+  </si>
+  <si>
+    <t>شركة دنيا المع...</t>
+  </si>
+  <si>
+    <t>مصنع المسبك ال...</t>
+  </si>
+  <si>
+    <t>مصنع شركة أبنا...</t>
+  </si>
+  <si>
+    <t>مصنع الجابرين ...</t>
+  </si>
+  <si>
+    <t>شركة مصنع عالم...</t>
+  </si>
+  <si>
+    <t>شركة الحلول ال...</t>
+  </si>
+  <si>
+    <t>مصنع الزاهد لش...</t>
   </si>
   <si>
     <t>الرياض</t>
@@ -1808,7 +1478,7 @@
     <t>الدمام</t>
   </si>
   <si>
-    <t>المدينة المنورة</t>
+    <t>المدينة المنور...</t>
   </si>
   <si>
     <t>رابغ</t>
@@ -1874,13 +1544,13 @@
     <t>منطقة الرياض</t>
   </si>
   <si>
-    <t>منطقة مكة المكرمة</t>
-  </si>
-  <si>
-    <t>المنطقة الشرقية</t>
-  </si>
-  <si>
-    <t>منطقة المدينة المنورة</t>
+    <t>منطقة مكة المك...</t>
+  </si>
+  <si>
+    <t>المنطقة الشرقي...</t>
+  </si>
+  <si>
+    <t>منطقة المدينة ...</t>
   </si>
   <si>
     <t>منطقة القصيم</t>
@@ -2303,649 +1973,586 @@
     <t>+966133400400</t>
   </si>
   <si>
-    <t>sultan@mqayes.com</t>
-  </si>
-  <si>
-    <t>n999f@hotmail.com</t>
-  </si>
-  <si>
-    <t>tjaouni@tigind.com</t>
-  </si>
-  <si>
-    <t>w.alshomrani@sawary.com</t>
-  </si>
-  <si>
-    <t>alshorooqpaint@yahoo.com</t>
-  </si>
-  <si>
-    <t>hr@plasco.com.sa</t>
-  </si>
-  <si>
-    <t>eyad@almarhoon.com.sa</t>
-  </si>
-  <si>
-    <t>m4u05999@gmail.com</t>
-  </si>
-  <si>
-    <t>ysg83_2000@yahoo.com</t>
-  </si>
-  <si>
-    <t>rffmmww@hotmail.com</t>
-  </si>
-  <si>
-    <t>alhanboot@hotmail.com</t>
-  </si>
-  <si>
-    <t>a.qader@asw.sa</t>
-  </si>
-  <si>
-    <t>almashari30@hotmail.com</t>
-  </si>
-  <si>
-    <t>cajetanr@abahsain.net</t>
-  </si>
-  <si>
-    <t>m.9995@hotmail.com</t>
-  </si>
-  <si>
-    <t>basselzindalhadid@yahoo.com</t>
-  </si>
-  <si>
-    <t>almukhter-factory@yahoo.com</t>
-  </si>
-  <si>
-    <t>naharygroup@yahoo.com</t>
-  </si>
-  <si>
-    <t>mushabab1403@hotmail.com</t>
-  </si>
-  <si>
-    <t>hala.hot@hotmail.com</t>
-  </si>
-  <si>
-    <t>waleed@rema.sa</t>
-  </si>
-  <si>
-    <t>ashraf@zedansteel.com</t>
-  </si>
-  <si>
-    <t>m.hafez@fulath.com</t>
-  </si>
-  <si>
-    <t>m7mood15@hotmail.com</t>
-  </si>
-  <si>
-    <t>mohssen222@hotmail.com</t>
-  </si>
-  <si>
-    <t>moqbel@atco.com.sa</t>
-  </si>
-  <si>
-    <t>swaznah@gmail.com</t>
-  </si>
-  <si>
-    <t>f0559988470f@hotmail.com</t>
-  </si>
-  <si>
-    <t>apoamr140300@gmail.com</t>
-  </si>
-  <si>
-    <t>obayan@ftc.com.sa</t>
-  </si>
-  <si>
-    <t>yadgroup_327@hotmail.com</t>
-  </si>
-  <si>
-    <t>o.hamadallah@mmico.com.sa</t>
-  </si>
-  <si>
-    <t>amwag.cop@hotmail.com</t>
-  </si>
-  <si>
-    <t>sl-n9@hotmail.com</t>
-  </si>
-  <si>
-    <t>khaledsaleh0506@yahoo.com</t>
-  </si>
-  <si>
-    <t>manager@mashailalqasr.com</t>
-  </si>
-  <si>
-    <t>info@alhazem.com</t>
-  </si>
-  <si>
-    <t>faw7@hotmail.com</t>
-  </si>
-  <si>
-    <t>saltuwalah@hotmail.com</t>
-  </si>
-  <si>
-    <t>ahmed_afia10@yahoo.com</t>
-  </si>
-  <si>
-    <t>weavers.mats@yahoo.com</t>
-  </si>
-  <si>
-    <t>m.murad@maimani.com</t>
-  </si>
-  <si>
-    <t>aljazeraryd@gmail.com</t>
-  </si>
-  <si>
-    <t>info@unioncoil.com.sa</t>
-  </si>
-  <si>
-    <t>ali.alyami@jotun.com</t>
-  </si>
-  <si>
-    <t>maher.alkabbani@alrubaishi.com</t>
-  </si>
-  <si>
-    <t>aziz.salim@rico-sa.com</t>
-  </si>
-  <si>
-    <t>abdulmonem@alsaryat.con</t>
-  </si>
-  <si>
-    <t>s_3gag@hotmail.com</t>
-  </si>
-  <si>
-    <t>alaazagzoog@yahoo.com</t>
-  </si>
-  <si>
-    <t>bestway_sa@hotmail.com</t>
-  </si>
-  <si>
-    <t>turkish-vip-911@hotmail.com</t>
-  </si>
-  <si>
-    <t>rami.qattan@alraeed-est.com</t>
-  </si>
-  <si>
-    <t>muath.i.g@gmail.com</t>
-  </si>
-  <si>
-    <t>qqutaiba@hotmail.com</t>
+    <t>sultan@mqayes....</t>
+  </si>
+  <si>
+    <t>n999f@hotmail....</t>
+  </si>
+  <si>
+    <t>tjaouni@tigind...</t>
+  </si>
+  <si>
+    <t>w.alshomrani@s...</t>
+  </si>
+  <si>
+    <t>alshorooqpaint...</t>
+  </si>
+  <si>
+    <t>hr@plasco.com....</t>
+  </si>
+  <si>
+    <t>eyad@almarhoon...</t>
+  </si>
+  <si>
+    <t>m4u05999@gmail...</t>
+  </si>
+  <si>
+    <t>ysg83_2000@yah...</t>
+  </si>
+  <si>
+    <t>rffmmww@hotmai...</t>
+  </si>
+  <si>
+    <t>alhanboot@hotm...</t>
+  </si>
+  <si>
+    <t>a.qader@asw.sa...</t>
+  </si>
+  <si>
+    <t>almashari30@ho...</t>
+  </si>
+  <si>
+    <t>cajetanr@abahs...</t>
+  </si>
+  <si>
+    <t>m.9995@hotmail...</t>
+  </si>
+  <si>
+    <t>basselzindalha...</t>
+  </si>
+  <si>
+    <t>almukhter-fact...</t>
+  </si>
+  <si>
+    <t>naharygroup@ya...</t>
+  </si>
+  <si>
+    <t>mushabab1403@h...</t>
+  </si>
+  <si>
+    <t>hala.hot@hotma...</t>
+  </si>
+  <si>
+    <t>waleed@rema.sa...</t>
+  </si>
+  <si>
+    <t>ashraf@zedanst...</t>
+  </si>
+  <si>
+    <t>m.hafez@fulath...</t>
+  </si>
+  <si>
+    <t>m7mood15@hotma...</t>
+  </si>
+  <si>
+    <t>mohssen222@hot...</t>
+  </si>
+  <si>
+    <t>moqbel@atco.co...</t>
+  </si>
+  <si>
+    <t>swaznah@gmail....</t>
+  </si>
+  <si>
+    <t>f0559988470f@h...</t>
+  </si>
+  <si>
+    <t>apoamr140300@g...</t>
+  </si>
+  <si>
+    <t>obayan@ftc.com...</t>
+  </si>
+  <si>
+    <t>yadgroup_327@h...</t>
+  </si>
+  <si>
+    <t>o.hamadallah@m...</t>
+  </si>
+  <si>
+    <t>amwag.cop@hotm...</t>
+  </si>
+  <si>
+    <t>sl-n9@hotmail....</t>
+  </si>
+  <si>
+    <t>khaledsaleh050...</t>
+  </si>
+  <si>
+    <t>manager@mashai...</t>
+  </si>
+  <si>
+    <t>info@alhazem.c...</t>
+  </si>
+  <si>
+    <t>faw7@hotmail.c...</t>
+  </si>
+  <si>
+    <t>saltuwalah@hot...</t>
+  </si>
+  <si>
+    <t>ahmed_afia10@y...</t>
+  </si>
+  <si>
+    <t>weavers.mats@y...</t>
+  </si>
+  <si>
+    <t>m.murad@maiman...</t>
+  </si>
+  <si>
+    <t>aljazeraryd@gm...</t>
+  </si>
+  <si>
+    <t>info@unioncoil...</t>
+  </si>
+  <si>
+    <t>ali.alyami@jot...</t>
+  </si>
+  <si>
+    <t>maher.alkabban...</t>
+  </si>
+  <si>
+    <t>aziz.salim@ric...</t>
+  </si>
+  <si>
+    <t>abdulmonem@als...</t>
+  </si>
+  <si>
+    <t>s_3gag@hotmail...</t>
+  </si>
+  <si>
+    <t>alaazagzoog@ya...</t>
+  </si>
+  <si>
+    <t>bestway_sa@hot...</t>
+  </si>
+  <si>
+    <t>turkish-vip-91...</t>
+  </si>
+  <si>
+    <t>rami.qattan@al...</t>
+  </si>
+  <si>
+    <t>muath.i.g@gmai...</t>
+  </si>
+  <si>
+    <t>qqutaiba@hotma...</t>
   </si>
   <si>
     <t>a@a.com</t>
   </si>
   <si>
-    <t>d.bashami@nccksa.com</t>
-  </si>
-  <si>
-    <t>sami@cbco.com.sa</t>
-  </si>
-  <si>
-    <t>ali.awari@madinal.com</t>
-  </si>
-  <si>
-    <t>mohammed@banzart.net</t>
-  </si>
-  <si>
-    <t>yousef@babader.com</t>
-  </si>
-  <si>
-    <t>info@seharriyadh.com</t>
-  </si>
-  <si>
-    <t>salmanalkhaldi@saudiacico.com</t>
-  </si>
-  <si>
-    <t>jharake@scpi.com.sa</t>
-  </si>
-  <si>
-    <t>aqasim@delmon.com.sa</t>
-  </si>
-  <si>
-    <t>u.555@hotmail.com</t>
-  </si>
-  <si>
-    <t>alprofsor11@gmail.com</t>
-  </si>
-  <si>
-    <t>asuan@alitcogroup.com</t>
-  </si>
-  <si>
-    <t>abdllah.f-16@hotmail.com</t>
-  </si>
-  <si>
-    <t>alijewad1@yahoo.ca</t>
-  </si>
-  <si>
-    <t>ali@altalabgroup.com</t>
-  </si>
-  <si>
-    <t>o.oun@arabian-ceramics.com</t>
-  </si>
-  <si>
-    <t>hr.spe@tenasfactory.com</t>
-  </si>
-  <si>
-    <t>y.alyahya@hacoreadymix.com</t>
-  </si>
-  <si>
-    <t>admin@smco-ltd.com</t>
-  </si>
-  <si>
-    <t>fadim2001@hotmail.com</t>
-  </si>
-  <si>
-    <t>goldenlabelplant@yahoo.com</t>
-  </si>
-  <si>
-    <t>ahmed.ali@alkifah.com</t>
-  </si>
-  <si>
-    <t>tsbahlas@unitedwires.com.sa</t>
-  </si>
-  <si>
-    <t>nasan5555@yahoo.com</t>
-  </si>
-  <si>
-    <t>mohammaed@alkhalafadv.com</t>
-  </si>
-  <si>
-    <t>ayahya@nrc.com.sa</t>
-  </si>
-  <si>
-    <t>bic@bic-sa.com</t>
-  </si>
-  <si>
-    <t>diyabkh@smi.com.sa</t>
-  </si>
-  <si>
-    <t>artisana1@hotmail.com</t>
-  </si>
-  <si>
-    <t>tariq.h.t@hotmail.com</t>
-  </si>
-  <si>
-    <t>abdullah-n@live.com</t>
-  </si>
-  <si>
-    <t>teklah@hotmail.com</t>
-  </si>
-  <si>
-    <t>nezar@heet.com.sa</t>
-  </si>
-  <si>
-    <t>zohair@zohairgroup.com</t>
-  </si>
-  <si>
-    <t>waleed.nf@hotmail.com</t>
-  </si>
-  <si>
-    <t>aaa.molik_1990@yahoo.com</t>
-  </si>
-  <si>
-    <t>nasr@jabreen-jsaf.com</t>
-  </si>
-  <si>
-    <t>faleh_alhajri1@hotmail.com</t>
-  </si>
-  <si>
-    <t>adnan@sst-sa.com</t>
-  </si>
-  <si>
-    <t>info@alzahidindustrial.com</t>
-  </si>
-  <si>
-    <t>صنع هياكل (اعمال تجهيز العربات) للمركبات ذات المحركات؛ صنع المركبات المقطورة والمركبات نصف المقطورة</t>
-  </si>
-  <si>
-    <t>صنع الدهانات والورنيشات والطلاءات المماثلة، واحبار الطباعة والمعاجين المستكية</t>
-  </si>
-  <si>
-    <t>صنع المحركات والمولدات والمحولات الكهربائية واجهزة توزيع الكهرباء والتحكم فيها</t>
-  </si>
-  <si>
-    <t>صنع المنتجات اللدائنية</t>
-  </si>
-  <si>
-    <t>صنع اصناف من الخرسانة والاسمنت والجص</t>
-  </si>
-  <si>
-    <t>صنع المنتجات المعدنية الانشائية</t>
-  </si>
-  <si>
-    <t>صنع الزجاج والمنتجات الزجاجية</t>
+    <t>d.bashami@ncck...</t>
+  </si>
+  <si>
+    <t>sami@cbco.com....</t>
+  </si>
+  <si>
+    <t>ali.awari@madi...</t>
+  </si>
+  <si>
+    <t>mohammed@banza...</t>
+  </si>
+  <si>
+    <t>yousef@babader...</t>
+  </si>
+  <si>
+    <t>info@seharriya...</t>
+  </si>
+  <si>
+    <t>salmanalkhaldi...</t>
+  </si>
+  <si>
+    <t>jharake@scpi.c...</t>
+  </si>
+  <si>
+    <t>aqasim@delmon....</t>
+  </si>
+  <si>
+    <t>u.555@hotmail....</t>
+  </si>
+  <si>
+    <t>alprofsor11@gm...</t>
+  </si>
+  <si>
+    <t>asuan@alitcogr...</t>
+  </si>
+  <si>
+    <t>abdllah.f-16@h...</t>
+  </si>
+  <si>
+    <t>alijewad1@yaho...</t>
+  </si>
+  <si>
+    <t>ali@altalabgro...</t>
+  </si>
+  <si>
+    <t>o.oun@arabian-...</t>
+  </si>
+  <si>
+    <t>hr.spe@tenasfa...</t>
+  </si>
+  <si>
+    <t>y.alyahya@haco...</t>
+  </si>
+  <si>
+    <t>admin@smco-ltd...</t>
+  </si>
+  <si>
+    <t>fadim2001@hotm...</t>
+  </si>
+  <si>
+    <t>goldenlabelpla...</t>
+  </si>
+  <si>
+    <t>ahmed.ali@alki...</t>
+  </si>
+  <si>
+    <t>tsbahlas@unite...</t>
+  </si>
+  <si>
+    <t>nasan5555@yaho...</t>
+  </si>
+  <si>
+    <t>mohammaed@alkh...</t>
+  </si>
+  <si>
+    <t>ayahya@nrc.com...</t>
+  </si>
+  <si>
+    <t>bic@bic-sa.com...</t>
+  </si>
+  <si>
+    <t>diyabkh@smi.co...</t>
+  </si>
+  <si>
+    <t>artisana1@hotm...</t>
+  </si>
+  <si>
+    <t>tariq.h.t@hotm...</t>
+  </si>
+  <si>
+    <t>abdullah-n@liv...</t>
+  </si>
+  <si>
+    <t>teklah@hotmail...</t>
+  </si>
+  <si>
+    <t>nezar@heet.com...</t>
+  </si>
+  <si>
+    <t>zohair@zohairg...</t>
+  </si>
+  <si>
+    <t>waleed.nf@hotm...</t>
+  </si>
+  <si>
+    <t>aaa.molik_1990...</t>
+  </si>
+  <si>
+    <t>nasr@jabreen-j...</t>
+  </si>
+  <si>
+    <t>faleh_alhajri1...</t>
+  </si>
+  <si>
+    <t>adnan@sst-sa.c...</t>
+  </si>
+  <si>
+    <t>info@alzahidin...</t>
+  </si>
+  <si>
+    <t>صنع هياكل (اعم...</t>
+  </si>
+  <si>
+    <t>صنع الدهانات و...</t>
+  </si>
+  <si>
+    <t>صنع المحركات و...</t>
+  </si>
+  <si>
+    <t>صنع المنتجات ا...</t>
+  </si>
+  <si>
+    <t>صنع اصناف من ا...</t>
+  </si>
+  <si>
+    <t>صنع الزجاج وال...</t>
   </si>
   <si>
     <t>صنع الاثاث</t>
   </si>
   <si>
-    <t>صنع الالات الاخرى متعددة الاغراض</t>
-  </si>
-  <si>
-    <t>صنع منتجات المعادن المشكلة الاخرى غير المصنفة في موضع اخر</t>
-  </si>
-  <si>
-    <t>صنع المنتجات الطفلية الانشائية</t>
-  </si>
-  <si>
-    <t>صنع الات تشكيل المعادن والعدد الالية</t>
-  </si>
-  <si>
-    <t>صنع الحديد القاعدي والصلب</t>
-  </si>
-  <si>
-    <t>صنع الصهاريج والخزانات والاوعية من المعادن</t>
-  </si>
-  <si>
-    <t>صنع المنتجات الكيميائية الاخرى غير المصنفة في موضع اخر</t>
-  </si>
-  <si>
-    <t>صنع منتجات ومشغولات النجارة اللازمة لعمال البناء</t>
-  </si>
-  <si>
-    <t>صنع الاسمنت ومنتجات صلب نصف جاهزة</t>
-  </si>
-  <si>
-    <t>معالجة وطلي المعادن؛ المعالجة بالالات</t>
-  </si>
-  <si>
-    <t>صنع معدات الاضاءة الكهربائية</t>
-  </si>
-  <si>
-    <t>قطع وتشكيل وصقل الاحجار</t>
+    <t>صنع الالات الا...</t>
+  </si>
+  <si>
+    <t>صنع منتجات الم...</t>
+  </si>
+  <si>
+    <t>صنع الات تشكيل...</t>
+  </si>
+  <si>
+    <t>صنع الحديد الق...</t>
+  </si>
+  <si>
+    <t>صنع الصهاريج و...</t>
+  </si>
+  <si>
+    <t>صنع منتجات ومش...</t>
+  </si>
+  <si>
+    <t>صنع الاسمنت وم...</t>
+  </si>
+  <si>
+    <t>معالجة وطلي ال...</t>
+  </si>
+  <si>
+    <t>صنع معدات الاض...</t>
+  </si>
+  <si>
+    <t>قطع وتشكيل وصق...</t>
   </si>
   <si>
     <t>الطباعة</t>
   </si>
   <si>
-    <t>صنع منتجات ومشغولات النجارة اللازمة لعمال البناء  صنع الاثاث</t>
-  </si>
-  <si>
-    <t>صنع المضخات والضواغط والصنابير والصمامات الاخرى</t>
-  </si>
-  <si>
-    <t>صنع اجزاء وتوابع ومحركات المركبات ذات المحركات</t>
-  </si>
-  <si>
-    <t>حاويات وخزانات متنوعة</t>
-  </si>
-  <si>
-    <t>توانك - تريلات - خزانات شاسيهات وصناديق حديدية للتريلات</t>
-  </si>
-  <si>
-    <t>مواد ملء الفراغات والفواصل</t>
-  </si>
-  <si>
-    <t>لوحات توزيع كهربائية</t>
+    <t>صنع المضخات وا...</t>
+  </si>
+  <si>
+    <t>صنع اجزاء وتوا...</t>
+  </si>
+  <si>
+    <t>حاويات وخزانات...</t>
+  </si>
+  <si>
+    <t>توانك - تريلات...</t>
+  </si>
+  <si>
+    <t>مواد ملء الفرا...</t>
+  </si>
+  <si>
+    <t>لوحات توزيع كه...</t>
   </si>
   <si>
     <t>ورنيش</t>
   </si>
   <si>
-    <t>انابيب بلاستيكية للصرف والشرب وصلات واكواع بلاستيكية</t>
+    <t>انابيب بلاستيك...</t>
   </si>
   <si>
     <t>خرسانة جاهزة</t>
   </si>
   <si>
-    <t>ابواب اتوماتيكية من الحديد والالمنيوم</t>
+    <t>ابواب اتوماتيك...</t>
   </si>
   <si>
     <t>خزانات</t>
   </si>
   <si>
-    <t>زجاج الامان (سيكوريت) ابواب حديدية نوافذ حديدية ابواب المنيوم نوافذ المنيوم</t>
-  </si>
-  <si>
-    <t>ابواب خشبية حلوق خشبية للابواب ابواب ودواليب خشبية كاونترات خشبية</t>
-  </si>
-  <si>
-    <t>بلوك اسمنتي عادي ومعزول بردورات اسمنتية</t>
-  </si>
-  <si>
-    <t>ابواب وشبابيك ودرابزينات حديدية هناجر ومباني حديدية</t>
-  </si>
-  <si>
-    <t>زجاج عادي وثنائي السيكوريت للنوافذ والواجهات والابواب ابواب حديدية نوافذ حديدية درابزينات حديدية ابواب المنيوم نوافذ المنيوم</t>
-  </si>
-  <si>
-    <t>الواح زعنفية ومسطحة وفريمات انابيب مزدوجة ومتعدده معالجة حراريا الواح ملحومة معالجة حراريا المنيوم ملحوم بالنحاس معالج حراريا وحدات ادخال الهواء البارد مبادلات حرارية صمامات متنوعة</t>
-  </si>
-  <si>
-    <t>بلوك اسمنتي عادي ومعزول</t>
-  </si>
-  <si>
-    <t>مشغولات حديدية متنوعة مشغولات المنيوم</t>
-  </si>
-  <si>
-    <t>بلاط سيراميك وقيشاني</t>
-  </si>
-  <si>
-    <t>انابيب ومواسير من بولي بروبلين خزانات بولي ايثلين للمياه والسوائل</t>
-  </si>
-  <si>
-    <t>ابواب حديدية نوافذ حديدية درابزينات حديدية لوحات المنيوم للطرق والشوارع هناجر ومظلات حديدية</t>
-  </si>
-  <si>
-    <t>ابواب حديدية نوافذ حديدية مشغولات معدنية دربزينات معدنية صلب مقاوم للصدا ( ستانلس ستيل )</t>
-  </si>
-  <si>
-    <t>بلوك اسمنتي معزول بالبوليسترين</t>
-  </si>
-  <si>
-    <t>لفات بولي بروبلين للتغليف مع الطباعة التعريفية</t>
-  </si>
-  <si>
-    <t>بلوك اسمنتي عادي ومعزول بلاط انترلوك</t>
-  </si>
-  <si>
-    <t>ابواب حديدية نوافذ حديدية منصات وقواعد سلالم ودرابزينات حديدية اسوار حديدية</t>
-  </si>
-  <si>
-    <t>اسياخ حديدية حديد مشكل (ثني وتشكيل الحديد) شبك حديد تسليح ملحوم</t>
-  </si>
-  <si>
-    <t>خرسانة جاهزة بلوك اسمنتي معزول</t>
-  </si>
-  <si>
-    <t>زجاج مقسى واجهات ومنتجات زجاجية للمباني</t>
-  </si>
-  <si>
-    <t>لوحات توزيع كهربائية جهد 13 : 36 ك.ف لوحات توزيع كهربائية حتى 1000 فولت لوحات تحكم كهربائية</t>
-  </si>
-  <si>
-    <t>بلوك هوردي بلوك اسمنتي عادي ومعزول</t>
-  </si>
-  <si>
-    <t>مطابخ وكاونترات المنيوم مطابخ وتشكيلات المنيوم</t>
-  </si>
-  <si>
-    <t>كبائن معدنية مشغولات حديدية متنوعة</t>
-  </si>
-  <si>
-    <t>بلوك اسمنتي معزول بردورات اسمنتية حواجز خرسانية</t>
-  </si>
-  <si>
-    <t>الواح صاج سوداء(تقطيع) شبك معدني للمباني</t>
-  </si>
-  <si>
-    <t>انابيب وخراطيم ومواسير بلاستيكية</t>
+    <t>زجاج الامان (س...</t>
+  </si>
+  <si>
+    <t>ابواب خشبية حل...</t>
+  </si>
+  <si>
+    <t>بلوك اسمنتي عا...</t>
+  </si>
+  <si>
+    <t>ابواب وشبابيك ...</t>
+  </si>
+  <si>
+    <t>زجاج عادي وثنا...</t>
+  </si>
+  <si>
+    <t>الواح زعنفية و...</t>
+  </si>
+  <si>
+    <t>مشغولات حديدية...</t>
+  </si>
+  <si>
+    <t>بلاط سيراميك و...</t>
+  </si>
+  <si>
+    <t>انابيب ومواسير...</t>
+  </si>
+  <si>
+    <t>ابواب حديدية ن...</t>
+  </si>
+  <si>
+    <t>بلوك اسمنتي مع...</t>
+  </si>
+  <si>
+    <t>لفات بولي بروب...</t>
+  </si>
+  <si>
+    <t>اسياخ حديدية ح...</t>
+  </si>
+  <si>
+    <t>خرسانة جاهزة ب...</t>
+  </si>
+  <si>
+    <t>زجاج مقسى واجه...</t>
+  </si>
+  <si>
+    <t>بلوك هوردي بلو...</t>
+  </si>
+  <si>
+    <t>مطابخ وكاونترا...</t>
+  </si>
+  <si>
+    <t>كبائن معدنية م...</t>
+  </si>
+  <si>
+    <t>الواح صاج سودا...</t>
+  </si>
+  <si>
+    <t>انابيب وخراطيم...</t>
   </si>
   <si>
     <t>توانك مياه</t>
   </si>
   <si>
-    <t>اجزاء مجاري هواء للتكييف المركزي (مخمدات حريق,تحكم بالهواء)</t>
-  </si>
-  <si>
-    <t>زجاج الامان (سيكوريت)</t>
+    <t>اجزاء مجاري هو...</t>
   </si>
   <si>
     <t>هياكل معدنية</t>
   </si>
   <si>
-    <t>توانك وصهاريج حديدية للمياه</t>
-  </si>
-  <si>
-    <t>حوامل معدنية مختلفة الاستخدام</t>
-  </si>
-  <si>
-    <t>بلوك مختلف المقاسات</t>
-  </si>
-  <si>
-    <t>الواح ولفات بلاستيكية لفات افلام بولي بروبلين الواح وبلوكات بولي ستايرين عازلة الواح بولي كربونيت الواح جدران مشكلة ومعزولة</t>
-  </si>
-  <si>
-    <t>طوب احمر فخاري وعازل للجدران والاسقف والواجهات والديكور والارضيات</t>
-  </si>
-  <si>
-    <t>صهاريج خزان مياه سايلوهات وتوانك</t>
-  </si>
-  <si>
-    <t>مجاري هواء اكسسوارات مجاري الهواء مضاغط الهواءمن الانواع المستعمله فى اجهزه التبريد كمبرسر تكييف وحدات ادخال الهواء البارد مراوح شفط وتبديل الهواء مكيفات فريون وسبيليت ومركزي</t>
+    <t>توانك وصهاريج ...</t>
+  </si>
+  <si>
+    <t>حوامل معدنية م...</t>
+  </si>
+  <si>
+    <t>بلوك مختلف الم...</t>
+  </si>
+  <si>
+    <t>الواح ولفات بل...</t>
+  </si>
+  <si>
+    <t>طوب احمر فخاري...</t>
+  </si>
+  <si>
+    <t>صهاريج خزان مي...</t>
+  </si>
+  <si>
+    <t>مجاري هواء اكس...</t>
   </si>
   <si>
     <t>ورنيش ومخففات</t>
   </si>
   <si>
-    <t>براميل بلاستيكية براميل بلاستيكية للنفايات</t>
-  </si>
-  <si>
-    <t>ابواب معدنية اتوماتيكية وكراجات (سحابة/مفصلية/لفافة/قلابة) طلاء قطاعات المنيوم ابواب معدنية خارجية ابواب ونوافذ وطاولات وكراسي ومكاتب المنيوم قباب المنيوم. اكسسوارات المنيوم</t>
-  </si>
-  <si>
-    <t>ابواب حديدية نوافذ حديدية ابواب معدنية واطاراتها مقاومة للحريق ابواب المنيوم مشغوله شبابيك المنيوم</t>
-  </si>
-  <si>
-    <t>بلوك هوردي بلوك اسمنتي عادي ومعزول بردورات اسمنتية</t>
-  </si>
-  <si>
-    <t>ابواب زجاجية عادية ابواب حديدية درج وسلالم اسوار حديدية مجاري هواء لاجهزة التكييف المركزي نوافذ المونيوم</t>
-  </si>
-  <si>
-    <t>بلوك اسمنتي عادي ومعزول بلاط انترلوك مواسير اسمنتيه خرسانة جاهزة حوائط واجزاء خرسانية مسبقة الصنع</t>
-  </si>
-  <si>
-    <t>توانك تخزين السوائل صهاريج وتوانك صوامع تخزين مباني مسبقة الصنع ومستودعات</t>
-  </si>
-  <si>
-    <t>قطاعات صلب مصمتة(مربع)</t>
-  </si>
-  <si>
-    <t>مبسطات وزوايا حديدية مسحوبة علي الساخن ومدرفله</t>
-  </si>
-  <si>
-    <t>بلوك اسمنتي بلوك بركاني بوزلان</t>
+    <t>براميل بلاستيك...</t>
+  </si>
+  <si>
+    <t>ابواب معدنية ا...</t>
+  </si>
+  <si>
+    <t>ابواب زجاجية ع...</t>
+  </si>
+  <si>
+    <t>توانك تخزين ال...</t>
+  </si>
+  <si>
+    <t>قطاعات صلب مصم...</t>
+  </si>
+  <si>
+    <t>مبسطات وزوايا ...</t>
+  </si>
+  <si>
+    <t>بلوك اسمنتي بل...</t>
   </si>
   <si>
     <t>شبك ملحوم</t>
   </si>
   <si>
-    <t>اجزاء وكتل خرسانية مسبقة الصب</t>
-  </si>
-  <si>
-    <t>شبابيك المنيوم ابواب المنيوم قباب المنيوم. اسقف مستعارة من بلاطات الألمنيوم واجهات مباني من الزجاج والالمنيوم</t>
+    <t>اجزاء وكتل خرس...</t>
+  </si>
+  <si>
+    <t>شبابيك المنيوم...</t>
   </si>
   <si>
     <t>ابواب خشبية</t>
   </si>
   <si>
-    <t>مواد تشطيب جافة وسائلة ذات اساس اسمنتي</t>
-  </si>
-  <si>
-    <t>غرف تفتيش متنوعة مجاري تصريف المياه اغطية فتحات تفتيش المنيوم فتحات هواء لاجهزة التكييف من الالمنيوم فتحات ومجاري تكييف الهواء</t>
-  </si>
-  <si>
-    <t>بلوك خرساني خلوي قواطع خرسانية خلوية خرسانة مسبقة الصنع</t>
-  </si>
-  <si>
-    <t>حوائط خرسانية مسبقة الصنع اجزاء خرسانية مسبقة الصنع اعصاب مسبقة الصنع</t>
-  </si>
-  <si>
-    <t>كيماويات معالجة مواد البناء تشكيل وطلاء المعادن</t>
-  </si>
-  <si>
-    <t>بلوك اسمنتي عادي ومعزول بردورات اسمنتية خرسانة جاهزة خرسانة مسبقة الصنع</t>
-  </si>
-  <si>
-    <t>ابواب حديدية درابزينات ومظلات وهناجر حديدية</t>
-  </si>
-  <si>
-    <t>ابواب خشبية حشو وكبس ابواب خشبية ملبسة بالبي.في.سي حلوق وبراويز ابواب خشبية واطاراتها مقاومة للحريق</t>
-  </si>
-  <si>
-    <t>اسمنت كلنكر اسمنت ابيض</t>
-  </si>
-  <si>
-    <t>ابواب وشبابيك المنيوم</t>
+    <t>مواد تشطيب جاف...</t>
+  </si>
+  <si>
+    <t>غرف تفتيش متنو...</t>
+  </si>
+  <si>
+    <t>بلوك خرساني خل...</t>
+  </si>
+  <si>
+    <t>حوائط خرسانية ...</t>
+  </si>
+  <si>
+    <t>كيماويات معالج...</t>
+  </si>
+  <si>
+    <t>ابواب حديدية د...</t>
+  </si>
+  <si>
+    <t>ابواب خشبية حش...</t>
+  </si>
+  <si>
+    <t>اسمنت كلنكر اس...</t>
   </si>
   <si>
     <t>مثبتات معدنية</t>
   </si>
   <si>
-    <t>بلاط ارضيات وجدران من البورسلان ادوات صحية بلاط ارضيات وجدران من السيراميك</t>
-  </si>
-  <si>
-    <t>صناديق اطفاء مع الخراطيم اعمدة انارة وكهرباء وملحقاتها اعمدة هاتف حديدية ملحقات كابلات محطات تحويل فرعية لوحات توزيع كهربائية وحدات انارة داخلية وحدات انارة خارجية</t>
-  </si>
-  <si>
-    <t>بلوك اسمنتي عادي ومعزول خرسانة جاهزة</t>
+    <t>بلاط ارضيات وج...</t>
+  </si>
+  <si>
+    <t>صناديق اطفاء م...</t>
   </si>
   <si>
     <t>الواح جرانيت</t>
   </si>
   <si>
-    <t>ابواب ونوافذ حديدية مزخرفة قباب من اللكسان مشغولات حديدية متنوعة ( ابواب ونوافذ ودربزينات ) مشغولات حديدية متنوعة ابواب ونوافذ المنيوم</t>
-  </si>
-  <si>
-    <t>ملصقات بلاستيكية دعائية</t>
+    <t>ابواب ونوافذ ح...</t>
+  </si>
+  <si>
+    <t>ملصقات بلاستيك...</t>
   </si>
   <si>
     <t>اسلاك ملينة</t>
   </si>
   <si>
-    <t>محطات تحويل فرعية لوحات توزيع كهربائية</t>
-  </si>
-  <si>
-    <t>مجسم اللوحات من مادة الفلكس فيس والعادية استاندات عرض لوحات اسماء الشوارع</t>
-  </si>
-  <si>
-    <t>خرسانة جاهزة بلوك اسمنتي</t>
-  </si>
-  <si>
-    <t>جلفنة المنتجات للغير مسبوكات نحاس</t>
-  </si>
-  <si>
-    <t>مشغولات من مسبوكات الزهر مسبوكات من البرونز مصنعة بالطرد المركزي مسبوكات البرونز المصنعة بواسطة السكب بقوالب الرمل</t>
-  </si>
-  <si>
-    <t>ابواب خشبية ديكورات خشبية</t>
-  </si>
-  <si>
-    <t>مسبوكات زهر رمادي (اغطية غرف التفتيش وبيارات وصرف مياه الامطار) اغطية وحواجز المجاري من حديد الدكتايل</t>
-  </si>
-  <si>
-    <t>صهاريج خزان مياه خزانات وصهاريج من الفولاذ صهاريج وتوانك صهاريج اسمنت</t>
-  </si>
-  <si>
-    <t>قطع وثني وتشكيل اسياخ حديد التسليح مقاطع واشكال حديدية من عناصر مجمعة مزخرفة ابواب حديدية ابواب معدنية واطاراتها مقاومة للحريق ارفف معدنية وانظمة التخزين درج (سلالم) حديدية سلالم ودربزينات صناعية بملحقاتها شبك حديد تسليح</t>
-  </si>
-  <si>
-    <t>قطاعات حديدية مشكلة على البارد حديد زوايا ارفف معدنية شبك تلييس مجاري هواء</t>
-  </si>
-  <si>
-    <t>مسبوكات زهر رمادي</t>
-  </si>
-  <si>
-    <t>بلوك اسمنتي عادي ومعزول بلاط ملون - انترلوك خرسانة جاهزة</t>
-  </si>
-  <si>
-    <t>مظلات واعمال حديدية توانك مياه وديزل حاويات نفايات متنوعة ابواب وشبابيك ومقابض ايادي واكسسوارات من الالمنيوم مطابخ وفترينات عرض المنيوم هناجر ومستودعات حديدية ومشغولات معدنية بيوت جاهزة متحركة بيوت جاهزة ثابتة</t>
-  </si>
-  <si>
-    <t>خزانات مياه فايبرجلاس . انابيب ومواسير فيبرجلاس اعمال تبطين فيبرجلاس</t>
-  </si>
-  <si>
-    <t>مكونات ووصلات خراطيم وملحقات صهاريج وصلات معدنية وصلات هيدروليك وهواء</t>
-  </si>
-  <si>
-    <t>حديد تسليح وقطاعات حديدية شبك حديد تسليح ملحوم</t>
+    <t>محطات تحويل فر...</t>
+  </si>
+  <si>
+    <t>مجسم اللوحات م...</t>
+  </si>
+  <si>
+    <t>جلفنة المنتجات...</t>
+  </si>
+  <si>
+    <t>مشغولات من مسب...</t>
+  </si>
+  <si>
+    <t>ابواب خشبية دي...</t>
+  </si>
+  <si>
+    <t>مسبوكات زهر رم...</t>
+  </si>
+  <si>
+    <t>قطع وثني وتشكي...</t>
+  </si>
+  <si>
+    <t>قطاعات حديدية ...</t>
+  </si>
+  <si>
+    <t>مظلات واعمال ح...</t>
+  </si>
+  <si>
+    <t>خزانات مياه فا...</t>
+  </si>
+  <si>
+    <t>مكونات ووصلات ...</t>
+  </si>
+  <si>
+    <t>حديد تسليح وقط...</t>
   </si>
 </sst>
 </file>
@@ -3353,2173 +2960,2173 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>289</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>387</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>388</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>188</v>
       </c>
       <c r="G4" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>462</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>190</v>
       </c>
       <c r="G6" t="s">
-        <v>390</v>
+        <v>283</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>463</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="G7" t="s">
-        <v>391</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>295</v>
+        <v>192</v>
       </c>
       <c r="G8" t="s">
-        <v>392</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
-        <v>296</v>
+        <v>193</v>
       </c>
       <c r="G9" t="s">
-        <v>393</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="F10" t="s">
-        <v>297</v>
+        <v>194</v>
       </c>
       <c r="G10" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>298</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="G12" t="s">
-        <v>395</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" t="s">
-        <v>222</v>
-      </c>
       <c r="E13" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c r="G13" t="s">
-        <v>396</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="F15" t="s">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="G15" t="s">
-        <v>397</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>152</v>
       </c>
       <c r="F16" t="s">
-        <v>302</v>
+        <v>198</v>
       </c>
       <c r="G16" t="s">
-        <v>398</v>
+        <v>291</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>464</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>244</v>
+        <v>141</v>
       </c>
       <c r="F17" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>304</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>399</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>400</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="F20" t="s">
-        <v>306</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>401</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>307</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>402</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>309</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
-        <v>404</v>
+        <v>297</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>465</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="F24" t="s">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="G24" t="s">
-        <v>405</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="F25" t="s">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>406</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="F26" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" t="s">
         <v>209</v>
       </c>
-      <c r="D27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E27" t="s">
-        <v>259</v>
-      </c>
-      <c r="F27" t="s">
-        <v>313</v>
-      </c>
       <c r="G27" t="s">
-        <v>408</v>
+        <v>301</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>466</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>314</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c r="F29" t="s">
-        <v>315</v>
+        <v>211</v>
       </c>
       <c r="G29" t="s">
-        <v>409</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" t="s">
         <v>212</v>
       </c>
-      <c r="D30" t="s">
-        <v>224</v>
-      </c>
-      <c r="E30" t="s">
-        <v>260</v>
-      </c>
-      <c r="F30" t="s">
-        <v>316</v>
-      </c>
       <c r="G30" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>467</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>261</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c r="G31" t="s">
-        <v>411</v>
+        <v>304</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>468</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>318</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>262</v>
+        <v>159</v>
       </c>
       <c r="F33" t="s">
-        <v>319</v>
+        <v>215</v>
       </c>
       <c r="G33" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>467</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="B34" t="s">
-        <v>140</v>
-      </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>320</v>
+        <v>216</v>
       </c>
       <c r="G34" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="s">
-        <v>141</v>
-      </c>
       <c r="C35" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c r="F35" t="s">
-        <v>321</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="B36" t="s">
-        <v>142</v>
-      </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="F36" t="s">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="G36" t="s">
-        <v>413</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="B37" t="s">
-        <v>143</v>
-      </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
       <c r="F37" t="s">
-        <v>323</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="B38" t="s">
-        <v>144</v>
-      </c>
       <c r="F38" t="s">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="G38" t="s">
-        <v>414</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="B39" t="s">
-        <v>145</v>
-      </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" t="s">
         <v>221</v>
       </c>
-      <c r="E39" t="s">
-        <v>263</v>
-      </c>
-      <c r="F39" t="s">
-        <v>325</v>
-      </c>
       <c r="G39" t="s">
-        <v>415</v>
+        <v>308</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>469</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="B40" t="s">
-        <v>146</v>
-      </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>264</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
-        <v>326</v>
+        <v>222</v>
       </c>
       <c r="G40" t="s">
-        <v>416</v>
+        <v>309</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>470</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="B41" t="s">
-        <v>147</v>
-      </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="G41" t="s">
-        <v>417</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="B42" t="s">
-        <v>148</v>
-      </c>
       <c r="D42" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="F42" t="s">
-        <v>328</v>
+        <v>224</v>
       </c>
       <c r="G42" t="s">
-        <v>418</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" t="s">
-        <v>149</v>
-      </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="F43" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="G43" t="s">
-        <v>419</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="B44" t="s">
-        <v>150</v>
-      </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" t="s">
         <v>226</v>
       </c>
-      <c r="E44" t="s">
-        <v>266</v>
-      </c>
-      <c r="F44" t="s">
-        <v>330</v>
-      </c>
       <c r="G44" t="s">
-        <v>420</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="B45" t="s">
-        <v>151</v>
-      </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>267</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
-        <v>331</v>
+        <v>227</v>
       </c>
       <c r="G45" t="s">
-        <v>421</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="B46" t="s">
-        <v>152</v>
-      </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>268</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
-        <v>332</v>
+        <v>228</v>
       </c>
       <c r="G46" t="s">
-        <v>422</v>
+        <v>315</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>471</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="B47" t="s">
-        <v>153</v>
-      </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="F47" t="s">
-        <v>333</v>
+        <v>229</v>
       </c>
       <c r="G47" t="s">
-        <v>423</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
         <v>54</v>
       </c>
-      <c r="B48" t="s">
-        <v>154</v>
-      </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
-        <v>334</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
         <v>55</v>
       </c>
-      <c r="B49" t="s">
-        <v>155</v>
-      </c>
       <c r="C49" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>166</v>
       </c>
       <c r="F49" t="s">
-        <v>335</v>
+        <v>231</v>
       </c>
       <c r="G49" t="s">
-        <v>424</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
         <v>56</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" t="s">
         <v>156</v>
       </c>
-      <c r="C50" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" t="s">
-        <v>221</v>
-      </c>
-      <c r="E50" t="s">
-        <v>259</v>
-      </c>
       <c r="F50" t="s">
-        <v>336</v>
+        <v>232</v>
       </c>
       <c r="G50" t="s">
-        <v>425</v>
+        <v>318</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>472</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="B51" t="s">
-        <v>157</v>
-      </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="F51" t="s">
-        <v>337</v>
+        <v>198</v>
       </c>
       <c r="G51" t="s">
-        <v>426</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
         <v>58</v>
       </c>
-      <c r="B52" t="s">
-        <v>158</v>
-      </c>
       <c r="C52" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>260</v>
+        <v>157</v>
       </c>
       <c r="F52" t="s">
-        <v>338</v>
+        <v>233</v>
       </c>
       <c r="G52" t="s">
-        <v>427</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="E53" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="F53" t="s">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="G53" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>473</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>271</v>
+        <v>168</v>
       </c>
       <c r="F54" t="s">
-        <v>340</v>
+        <v>235</v>
       </c>
       <c r="G54" t="s">
-        <v>428</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="F55" t="s">
-        <v>341</v>
+        <v>236</v>
       </c>
       <c r="G55" t="s">
-        <v>429</v>
+        <v>322</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>474</v>
+        <v>367</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="E56" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="F56" t="s">
-        <v>342</v>
+        <v>237</v>
       </c>
       <c r="G56" t="s">
-        <v>430</v>
+        <v>323</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>475</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="E57" t="s">
-        <v>264</v>
+        <v>161</v>
       </c>
       <c r="F57" t="s">
-        <v>343</v>
+        <v>238</v>
       </c>
       <c r="G57" t="s">
-        <v>431</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="F58" t="s">
-        <v>344</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="E59" t="s">
-        <v>274</v>
+        <v>171</v>
       </c>
       <c r="F59" t="s">
-        <v>345</v>
+        <v>240</v>
       </c>
       <c r="G59" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>467</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="F60" t="s">
-        <v>346</v>
+        <v>241</v>
       </c>
       <c r="G60" t="s">
-        <v>432</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>347</v>
+        <v>242</v>
       </c>
       <c r="G61" t="s">
-        <v>433</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="D62" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="E62" t="s">
-        <v>264</v>
+        <v>161</v>
       </c>
       <c r="F62" t="s">
-        <v>348</v>
+        <v>243</v>
       </c>
       <c r="G62" t="s">
-        <v>434</v>
+        <v>327</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>476</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="E63" t="s">
-        <v>275</v>
+        <v>172</v>
       </c>
       <c r="F63" t="s">
-        <v>349</v>
+        <v>244</v>
       </c>
       <c r="G63" t="s">
-        <v>435</v>
+        <v>328</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>477</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c r="F64" t="s">
-        <v>350</v>
+        <v>198</v>
       </c>
       <c r="G64" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>467</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D65" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="E65" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="F65" t="s">
-        <v>351</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="F66" t="s">
-        <v>352</v>
+        <v>246</v>
       </c>
       <c r="G66" t="s">
-        <v>436</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
-        <v>269</v>
+        <v>166</v>
       </c>
       <c r="F67" t="s">
-        <v>353</v>
+        <v>247</v>
       </c>
       <c r="G67" t="s">
-        <v>437</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="F68" t="s">
-        <v>354</v>
+        <v>248</v>
       </c>
       <c r="G68" t="s">
-        <v>438</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="E69" t="s">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c r="F69" t="s">
-        <v>355</v>
+        <v>249</v>
       </c>
       <c r="G69" t="s">
-        <v>439</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="F70" t="s">
-        <v>356</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="F71" t="s">
-        <v>357</v>
+        <v>251</v>
       </c>
       <c r="G71" t="s">
-        <v>440</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D72" t="s">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="E72" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
       <c r="F72" t="s">
-        <v>358</v>
+        <v>252</v>
       </c>
       <c r="G72" t="s">
-        <v>441</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="E73" t="s">
-        <v>266</v>
+        <v>163</v>
       </c>
       <c r="F73" t="s">
-        <v>359</v>
+        <v>253</v>
       </c>
       <c r="G73" t="s">
-        <v>442</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="D74" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
-        <v>277</v>
+        <v>174</v>
       </c>
       <c r="F74" t="s">
-        <v>360</v>
+        <v>254</v>
       </c>
       <c r="G74" t="s">
-        <v>443</v>
+        <v>336</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>478</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="F75" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="F76" t="s">
-        <v>362</v>
+        <v>256</v>
       </c>
       <c r="G76" t="s">
-        <v>444</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="F77" t="s">
-        <v>363</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="E78" t="s">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="F78" t="s">
-        <v>364</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D79" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="E79" t="s">
-        <v>266</v>
+        <v>163</v>
       </c>
       <c r="F79" t="s">
-        <v>365</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D80" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="E80" t="s">
-        <v>279</v>
+        <v>176</v>
       </c>
       <c r="F80" t="s">
-        <v>366</v>
+        <v>260</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>479</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="E81" t="s">
-        <v>280</v>
+        <v>177</v>
       </c>
       <c r="F81" t="s">
-        <v>367</v>
+        <v>261</v>
       </c>
       <c r="G81" t="s">
-        <v>445</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="D82" t="s">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="E82" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="F82" t="s">
-        <v>368</v>
+        <v>262</v>
       </c>
       <c r="G82" t="s">
-        <v>446</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="E83" t="s">
-        <v>266</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>369</v>
+        <v>263</v>
       </c>
       <c r="G83" t="s">
-        <v>447</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="E84" t="s">
-        <v>281</v>
+        <v>178</v>
       </c>
       <c r="F84" t="s">
-        <v>370</v>
+        <v>264</v>
       </c>
       <c r="G84" t="s">
-        <v>448</v>
+        <v>341</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>480</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D85" t="s">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="E85" t="s">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="F85" t="s">
-        <v>371</v>
+        <v>265</v>
       </c>
       <c r="G85" t="s">
-        <v>449</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D86" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="E86" t="s">
-        <v>283</v>
+        <v>180</v>
       </c>
       <c r="F86" t="s">
-        <v>372</v>
+        <v>266</v>
       </c>
       <c r="G86" t="s">
-        <v>450</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="D87" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="E87" t="s">
-        <v>284</v>
+        <v>181</v>
       </c>
       <c r="F87" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="G87" t="s">
-        <v>451</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="E88" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="F88" t="s">
-        <v>374</v>
+        <v>268</v>
       </c>
       <c r="G88" t="s">
-        <v>452</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="E89" t="s">
-        <v>260</v>
+        <v>157</v>
       </c>
       <c r="F89" t="s">
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="G89" t="s">
-        <v>453</v>
+        <v>346</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>481</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D90" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="E90" t="s">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="F90" t="s">
-        <v>376</v>
+        <v>270</v>
       </c>
       <c r="G90" t="s">
-        <v>454</v>
+        <v>347</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D91" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="E91" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="F91" t="s">
-        <v>377</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="D92" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="E92" t="s">
-        <v>277</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>378</v>
+        <v>272</v>
       </c>
       <c r="G92" t="s">
-        <v>455</v>
+        <v>348</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>482</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D93" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="E93" t="s">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>379</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="E94" t="s">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>380</v>
+        <v>274</v>
       </c>
       <c r="G94" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D95" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="E95" t="s">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>381</v>
+        <v>275</v>
       </c>
       <c r="G95" t="s">
-        <v>457</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D97" t="s">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="E97" t="s">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="F97" t="s">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="G97" t="s">
-        <v>458</v>
+        <v>351</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>483</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D98" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="E98" t="s">
-        <v>287</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>383</v>
+        <v>277</v>
       </c>
       <c r="G98" t="s">
-        <v>459</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" t="s">
         <v>105</v>
       </c>
-      <c r="B99" t="s">
-        <v>205</v>
-      </c>
-      <c r="C99" t="s">
-        <v>208</v>
-      </c>
       <c r="D99" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="E99" t="s">
-        <v>288</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
-        <v>384</v>
+        <v>278</v>
       </c>
       <c r="G99" t="s">
-        <v>460</v>
+        <v>353</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="E100" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
       <c r="F100" t="s">
-        <v>385</v>
+        <v>198</v>
       </c>
       <c r="G100" t="s">
-        <v>461</v>
+        <v>354</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D101" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="E101" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="F101" t="s">
-        <v>386</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5634,7 +5241,7 @@
     <hyperlink ref="A87" r:id="rId108"/>
     <hyperlink ref="A88" r:id="rId109"/>
     <hyperlink ref="A89" r:id="rId110"/>
-    <hyperlink ref="H89" r:id="rId111" location=""/>
+    <hyperlink ref="H89" r:id="rId111"/>
     <hyperlink ref="A90" r:id="rId112"/>
     <hyperlink ref="A91" r:id="rId113"/>
     <hyperlink ref="A92" r:id="rId114"/>
@@ -5664,2427 +5271,2427 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>485</v>
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>378</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>487</v>
+        <v>379</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>488</v>
+        <v>380</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>489</v>
+        <v>381</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>490</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C2" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D2" t="s">
-        <v>627</v>
+        <v>517</v>
       </c>
       <c r="E2" t="s">
-        <v>726</v>
+        <v>616</v>
       </c>
       <c r="F2" t="s">
-        <v>762</v>
+        <v>652</v>
       </c>
       <c r="G2" t="s">
-        <v>858</v>
+        <v>748</v>
       </c>
       <c r="H2" t="s">
-        <v>882</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>492</v>
+        <v>384</v>
       </c>
       <c r="B3" t="s">
-        <v>592</v>
+        <v>482</v>
       </c>
       <c r="C3" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D3" t="s">
-        <v>628</v>
+        <v>518</v>
       </c>
       <c r="F3" t="s">
-        <v>763</v>
+        <v>653</v>
       </c>
       <c r="G3" t="s">
-        <v>858</v>
+        <v>748</v>
       </c>
       <c r="H3" t="s">
-        <v>883</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C4" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D4" t="s">
-        <v>629</v>
+        <v>519</v>
       </c>
       <c r="F4" t="s">
-        <v>764</v>
+        <v>654</v>
       </c>
       <c r="G4" t="s">
-        <v>859</v>
+        <v>749</v>
       </c>
       <c r="H4" t="s">
-        <v>884</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>494</v>
+        <v>386</v>
       </c>
       <c r="B5" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C5" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="E5" t="s">
-        <v>727</v>
+        <v>617</v>
       </c>
       <c r="F5" t="s">
-        <v>765</v>
+        <v>655</v>
       </c>
       <c r="G5" t="s">
-        <v>860</v>
+        <v>750</v>
       </c>
       <c r="H5" t="s">
-        <v>885</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>495</v>
+        <v>387</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C6" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D6" t="s">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="E6" t="s">
-        <v>728</v>
+        <v>618</v>
       </c>
       <c r="F6" t="s">
-        <v>766</v>
+        <v>656</v>
       </c>
       <c r="G6" t="s">
-        <v>859</v>
+        <v>749</v>
       </c>
       <c r="H6" t="s">
-        <v>886</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>388</v>
       </c>
       <c r="B7" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C7" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D7" t="s">
-        <v>631</v>
+        <v>521</v>
       </c>
       <c r="F7" t="s">
-        <v>767</v>
+        <v>657</v>
       </c>
       <c r="G7" t="s">
-        <v>861</v>
+        <v>751</v>
       </c>
       <c r="H7" t="s">
-        <v>887</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>497</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s">
-        <v>594</v>
+        <v>484</v>
       </c>
       <c r="C8" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D8" t="s">
-        <v>632</v>
+        <v>522</v>
       </c>
       <c r="E8" t="s">
-        <v>729</v>
+        <v>619</v>
       </c>
       <c r="F8" t="s">
-        <v>768</v>
+        <v>658</v>
       </c>
       <c r="G8" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H8" t="s">
-        <v>888</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>390</v>
       </c>
       <c r="B9" t="s">
-        <v>595</v>
+        <v>485</v>
       </c>
       <c r="C9" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D9" t="s">
-        <v>633</v>
+        <v>523</v>
       </c>
       <c r="F9" t="s">
-        <v>769</v>
+        <v>659</v>
       </c>
       <c r="G9" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H9" t="s">
-        <v>889</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>499</v>
+        <v>391</v>
       </c>
       <c r="B10" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C10" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D10" t="s">
-        <v>634</v>
+        <v>524</v>
       </c>
       <c r="F10" t="s">
-        <v>770</v>
+        <v>660</v>
       </c>
       <c r="G10" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H10" t="s">
-        <v>890</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>500</v>
+        <v>392</v>
       </c>
       <c r="B11" t="s">
-        <v>597</v>
+        <v>487</v>
       </c>
       <c r="C11" t="s">
-        <v>621</v>
+        <v>511</v>
       </c>
       <c r="D11" t="s">
-        <v>635</v>
+        <v>525</v>
       </c>
       <c r="E11" t="s">
-        <v>635</v>
+        <v>525</v>
       </c>
       <c r="G11" t="s">
-        <v>864</v>
+        <v>753</v>
       </c>
       <c r="H11" t="s">
-        <v>891</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>393</v>
       </c>
       <c r="B12" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C12" t="s">
+        <v>510</v>
+      </c>
+      <c r="D12" t="s">
+        <v>526</v>
+      </c>
+      <c r="E12" t="s">
         <v>620</v>
       </c>
-      <c r="D12" t="s">
-        <v>636</v>
-      </c>
-      <c r="E12" t="s">
-        <v>730</v>
-      </c>
       <c r="F12" t="s">
-        <v>771</v>
+        <v>661</v>
       </c>
       <c r="G12" t="s">
-        <v>865</v>
+        <v>754</v>
       </c>
       <c r="H12" t="s">
-        <v>892</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>502</v>
+        <v>394</v>
       </c>
       <c r="B13" t="s">
-        <v>598</v>
+        <v>488</v>
       </c>
       <c r="C13" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D13" t="s">
-        <v>637</v>
+        <v>527</v>
       </c>
       <c r="F13" t="s">
-        <v>772</v>
+        <v>662</v>
       </c>
       <c r="G13" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H13" t="s">
-        <v>893</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>395</v>
       </c>
       <c r="B14" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C14" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D14" t="s">
-        <v>638</v>
+        <v>528</v>
       </c>
       <c r="E14" t="s">
-        <v>638</v>
+        <v>528</v>
       </c>
       <c r="F14" t="s">
-        <v>773</v>
+        <v>663</v>
       </c>
       <c r="G14" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H14" t="s">
-        <v>894</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>504</v>
+        <v>396</v>
       </c>
       <c r="B15" t="s">
-        <v>597</v>
+        <v>487</v>
       </c>
       <c r="C15" t="s">
+        <v>511</v>
+      </c>
+      <c r="D15" t="s">
+        <v>529</v>
+      </c>
+      <c r="E15" t="s">
         <v>621</v>
       </c>
-      <c r="D15" t="s">
-        <v>639</v>
-      </c>
-      <c r="E15" t="s">
-        <v>731</v>
-      </c>
       <c r="F15" t="s">
-        <v>774</v>
+        <v>664</v>
       </c>
       <c r="G15" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H15" t="s">
-        <v>895</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>505</v>
+        <v>397</v>
       </c>
       <c r="B16" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C16" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D16" t="s">
-        <v>640</v>
+        <v>530</v>
       </c>
       <c r="F16" t="s">
-        <v>775</v>
+        <v>665</v>
       </c>
       <c r="G16" t="s">
-        <v>866</v>
+        <v>755</v>
       </c>
       <c r="H16" t="s">
-        <v>896</v>
+        <v>782</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>398</v>
       </c>
       <c r="B17" t="s">
-        <v>599</v>
+        <v>489</v>
       </c>
       <c r="C17" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D17" t="s">
-        <v>641</v>
+        <v>531</v>
       </c>
       <c r="G17" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H17" t="s">
-        <v>897</v>
+        <v>779</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>507</v>
+        <v>399</v>
       </c>
       <c r="B18" t="s">
-        <v>600</v>
+        <v>490</v>
       </c>
       <c r="C18" t="s">
-        <v>622</v>
+        <v>512</v>
       </c>
       <c r="D18" t="s">
-        <v>642</v>
+        <v>532</v>
       </c>
       <c r="F18" t="s">
-        <v>776</v>
+        <v>666</v>
       </c>
       <c r="G18" t="s">
-        <v>867</v>
+        <v>756</v>
       </c>
       <c r="H18" t="s">
-        <v>898</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>400</v>
+      </c>
+      <c r="B19" t="s">
+        <v>481</v>
+      </c>
+      <c r="C19" t="s">
         <v>508</v>
       </c>
-      <c r="B19" t="s">
-        <v>591</v>
-      </c>
-      <c r="C19" t="s">
-        <v>618</v>
-      </c>
       <c r="D19" t="s">
-        <v>643</v>
+        <v>533</v>
       </c>
       <c r="E19" t="s">
-        <v>732</v>
+        <v>622</v>
       </c>
       <c r="F19" t="s">
-        <v>777</v>
+        <v>667</v>
       </c>
       <c r="G19" t="s">
-        <v>868</v>
+        <v>751</v>
       </c>
       <c r="H19" t="s">
-        <v>899</v>
+        <v>784</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>509</v>
+        <v>401</v>
       </c>
       <c r="B20" t="s">
-        <v>601</v>
+        <v>491</v>
       </c>
       <c r="C20" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D20" t="s">
-        <v>644</v>
+        <v>534</v>
       </c>
       <c r="F20" t="s">
-        <v>778</v>
+        <v>668</v>
       </c>
       <c r="G20" t="s">
-        <v>861</v>
+        <v>751</v>
       </c>
       <c r="H20" t="s">
-        <v>900</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>510</v>
+        <v>402</v>
       </c>
       <c r="B21" t="s">
-        <v>602</v>
+        <v>492</v>
       </c>
       <c r="C21" t="s">
-        <v>623</v>
+        <v>513</v>
       </c>
       <c r="D21" t="s">
-        <v>645</v>
+        <v>535</v>
       </c>
       <c r="F21" t="s">
-        <v>779</v>
+        <v>669</v>
       </c>
       <c r="G21" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H21" t="s">
-        <v>901</v>
+        <v>786</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>511</v>
+        <v>403</v>
       </c>
       <c r="B22" t="s">
-        <v>602</v>
+        <v>492</v>
       </c>
       <c r="C22" t="s">
-        <v>623</v>
+        <v>513</v>
       </c>
       <c r="D22" t="s">
-        <v>646</v>
+        <v>536</v>
       </c>
       <c r="F22" t="s">
-        <v>780</v>
+        <v>670</v>
       </c>
       <c r="G22" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H22" t="s">
-        <v>902</v>
+        <v>786</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>512</v>
+        <v>404</v>
       </c>
       <c r="B23" t="s">
-        <v>603</v>
+        <v>493</v>
       </c>
       <c r="C23" t="s">
-        <v>623</v>
+        <v>513</v>
       </c>
       <c r="D23" t="s">
-        <v>647</v>
+        <v>537</v>
       </c>
       <c r="F23" t="s">
-        <v>781</v>
+        <v>671</v>
       </c>
       <c r="G23" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H23" t="s">
-        <v>903</v>
+        <v>787</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>513</v>
+        <v>405</v>
       </c>
       <c r="B24" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C24" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D24" t="s">
-        <v>648</v>
+        <v>538</v>
       </c>
       <c r="F24" t="s">
-        <v>782</v>
+        <v>672</v>
       </c>
       <c r="G24" t="s">
-        <v>861</v>
+        <v>751</v>
       </c>
       <c r="H24" t="s">
-        <v>904</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>406</v>
+      </c>
+      <c r="B25" t="s">
+        <v>494</v>
+      </c>
+      <c r="C25" t="s">
         <v>514</v>
       </c>
-      <c r="B25" t="s">
-        <v>604</v>
-      </c>
-      <c r="C25" t="s">
-        <v>624</v>
-      </c>
       <c r="D25" t="s">
-        <v>649</v>
+        <v>539</v>
       </c>
       <c r="G25" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H25" t="s">
-        <v>905</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>515</v>
+        <v>398</v>
       </c>
       <c r="B26" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C26" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D26" t="s">
-        <v>650</v>
+        <v>540</v>
       </c>
       <c r="F26" t="s">
-        <v>783</v>
+        <v>673</v>
       </c>
       <c r="G26" t="s">
-        <v>869</v>
+        <v>757</v>
       </c>
       <c r="H26" t="s">
-        <v>906</v>
+        <v>786</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>516</v>
+        <v>407</v>
       </c>
       <c r="B27" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C27" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D27" t="s">
-        <v>651</v>
+        <v>541</v>
       </c>
       <c r="F27" t="s">
-        <v>784</v>
+        <v>674</v>
       </c>
       <c r="G27" t="s">
-        <v>870</v>
+        <v>758</v>
       </c>
       <c r="H27" t="s">
-        <v>907</v>
+        <v>789</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>517</v>
+        <v>408</v>
       </c>
       <c r="B28" t="s">
-        <v>605</v>
+        <v>495</v>
       </c>
       <c r="C28" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D28" t="s">
-        <v>652</v>
+        <v>542</v>
       </c>
       <c r="F28" t="s">
-        <v>785</v>
+        <v>675</v>
       </c>
       <c r="G28" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H28" t="s">
-        <v>908</v>
+        <v>790</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>518</v>
+        <v>409</v>
       </c>
       <c r="B29" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C29" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D29" t="s">
-        <v>653</v>
+        <v>543</v>
       </c>
       <c r="E29" t="s">
-        <v>733</v>
+        <v>623</v>
       </c>
       <c r="F29" t="s">
-        <v>786</v>
+        <v>676</v>
       </c>
       <c r="G29" t="s">
-        <v>864</v>
+        <v>753</v>
       </c>
       <c r="H29" t="s">
-        <v>909</v>
+        <v>791</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>519</v>
+        <v>410</v>
       </c>
       <c r="B30" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C30" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D30" t="s">
-        <v>654</v>
+        <v>544</v>
       </c>
       <c r="F30" t="s">
-        <v>787</v>
+        <v>677</v>
       </c>
       <c r="G30" t="s">
-        <v>860</v>
+        <v>750</v>
       </c>
       <c r="H30" t="s">
-        <v>910</v>
+        <v>771</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>520</v>
+        <v>411</v>
       </c>
       <c r="B31" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C31" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D31" t="s">
-        <v>655</v>
+        <v>545</v>
       </c>
       <c r="E31" t="s">
-        <v>734</v>
+        <v>624</v>
       </c>
       <c r="F31" t="s">
-        <v>788</v>
+        <v>678</v>
       </c>
       <c r="G31" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H31" t="s">
-        <v>911</v>
+        <v>792</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>521</v>
+        <v>412</v>
       </c>
       <c r="B32" t="s">
-        <v>606</v>
+        <v>496</v>
       </c>
       <c r="C32" t="s">
-        <v>623</v>
+        <v>513</v>
       </c>
       <c r="D32" t="s">
-        <v>656</v>
+        <v>546</v>
       </c>
       <c r="F32" t="s">
-        <v>789</v>
+        <v>679</v>
       </c>
       <c r="G32" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H32" t="s">
-        <v>897</v>
+        <v>779</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>522</v>
+        <v>413</v>
       </c>
       <c r="B33" t="s">
-        <v>607</v>
+        <v>497</v>
       </c>
       <c r="C33" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D33" t="s">
-        <v>657</v>
+        <v>547</v>
       </c>
       <c r="G33" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H33" t="s">
-        <v>897</v>
+        <v>779</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>523</v>
+        <v>414</v>
       </c>
       <c r="B34" t="s">
-        <v>608</v>
+        <v>498</v>
       </c>
       <c r="C34" t="s">
-        <v>622</v>
+        <v>512</v>
       </c>
       <c r="D34" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="F34" t="s">
-        <v>790</v>
+        <v>680</v>
       </c>
       <c r="G34" t="s">
-        <v>865</v>
+        <v>754</v>
       </c>
       <c r="H34" t="s">
-        <v>912</v>
+        <v>793</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>524</v>
+        <v>415</v>
       </c>
       <c r="B35" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C35" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D35" t="s">
-        <v>659</v>
+        <v>549</v>
       </c>
       <c r="E35" t="s">
-        <v>735</v>
+        <v>625</v>
       </c>
       <c r="F35" t="s">
-        <v>791</v>
+        <v>681</v>
       </c>
       <c r="G35" t="s">
-        <v>867</v>
+        <v>756</v>
       </c>
       <c r="H35" t="s">
-        <v>913</v>
+        <v>794</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>525</v>
+        <v>416</v>
       </c>
       <c r="B36" t="s">
-        <v>609</v>
+        <v>499</v>
       </c>
       <c r="C36" t="s">
-        <v>623</v>
+        <v>513</v>
       </c>
       <c r="D36" t="s">
-        <v>660</v>
+        <v>550</v>
       </c>
       <c r="E36" t="s">
-        <v>736</v>
+        <v>626</v>
       </c>
       <c r="F36" t="s">
-        <v>792</v>
+        <v>682</v>
       </c>
       <c r="G36" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H36" t="s">
-        <v>914</v>
+        <v>787</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>526</v>
+        <v>417</v>
       </c>
       <c r="B37" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C37" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D37" t="s">
-        <v>661</v>
+        <v>551</v>
       </c>
       <c r="E37" t="s">
-        <v>737</v>
+        <v>627</v>
       </c>
       <c r="F37" t="s">
-        <v>793</v>
+        <v>683</v>
       </c>
       <c r="G37" t="s">
-        <v>870</v>
+        <v>758</v>
       </c>
       <c r="H37" t="s">
-        <v>915</v>
+        <v>795</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>527</v>
+        <v>418</v>
       </c>
       <c r="B38" t="s">
-        <v>610</v>
+        <v>500</v>
       </c>
       <c r="C38" t="s">
-        <v>622</v>
+        <v>512</v>
       </c>
       <c r="D38" t="s">
-        <v>662</v>
+        <v>552</v>
       </c>
       <c r="E38" t="s">
-        <v>738</v>
+        <v>628</v>
       </c>
       <c r="F38" t="s">
-        <v>794</v>
+        <v>684</v>
       </c>
       <c r="G38" t="s">
-        <v>861</v>
+        <v>751</v>
       </c>
       <c r="H38" t="s">
-        <v>916</v>
+        <v>796</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>528</v>
+        <v>419</v>
       </c>
       <c r="B39" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C39" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D39" t="s">
-        <v>663</v>
+        <v>553</v>
       </c>
       <c r="F39" t="s">
-        <v>795</v>
+        <v>685</v>
       </c>
       <c r="G39" t="s">
-        <v>871</v>
+        <v>759</v>
       </c>
       <c r="H39" t="s">
-        <v>917</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>529</v>
+        <v>420</v>
       </c>
       <c r="B40" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C40" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D40" t="s">
-        <v>664</v>
+        <v>554</v>
       </c>
       <c r="F40" t="s">
-        <v>796</v>
+        <v>686</v>
       </c>
       <c r="G40" t="s">
-        <v>866</v>
+        <v>755</v>
       </c>
       <c r="H40" t="s">
-        <v>918</v>
+        <v>798</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>530</v>
+        <v>421</v>
       </c>
       <c r="B41" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C41" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D41" t="s">
-        <v>665</v>
+        <v>555</v>
       </c>
       <c r="E41" t="s">
-        <v>739</v>
+        <v>629</v>
       </c>
       <c r="F41" t="s">
-        <v>797</v>
+        <v>687</v>
       </c>
       <c r="G41" t="s">
-        <v>864</v>
+        <v>753</v>
       </c>
       <c r="H41" t="s">
-        <v>919</v>
+        <v>777</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>531</v>
+        <v>422</v>
       </c>
       <c r="B42" t="s">
-        <v>597</v>
+        <v>487</v>
       </c>
       <c r="C42" t="s">
-        <v>621</v>
+        <v>511</v>
       </c>
       <c r="D42" t="s">
-        <v>666</v>
+        <v>556</v>
       </c>
       <c r="E42" t="s">
-        <v>740</v>
+        <v>630</v>
       </c>
       <c r="F42" t="s">
-        <v>798</v>
+        <v>688</v>
       </c>
       <c r="G42" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H42" t="s">
-        <v>920</v>
+        <v>799</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>532</v>
+        <v>423</v>
       </c>
       <c r="B43" t="s">
-        <v>611</v>
+        <v>501</v>
       </c>
       <c r="C43" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D43" t="s">
-        <v>667</v>
+        <v>557</v>
       </c>
       <c r="F43" t="s">
-        <v>799</v>
+        <v>689</v>
       </c>
       <c r="G43" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H43" t="s">
-        <v>921</v>
+        <v>800</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>533</v>
+        <v>424</v>
       </c>
       <c r="B44" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C44" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D44" t="s">
-        <v>668</v>
+        <v>558</v>
       </c>
       <c r="F44" t="s">
-        <v>800</v>
+        <v>690</v>
       </c>
       <c r="G44" t="s">
-        <v>858</v>
+        <v>748</v>
       </c>
       <c r="H44" t="s">
-        <v>922</v>
+        <v>801</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>534</v>
+        <v>425</v>
       </c>
       <c r="B45" t="s">
-        <v>612</v>
+        <v>502</v>
       </c>
       <c r="C45" t="s">
-        <v>625</v>
+        <v>515</v>
       </c>
       <c r="D45" t="s">
-        <v>669</v>
+        <v>559</v>
       </c>
       <c r="F45" t="s">
-        <v>801</v>
+        <v>691</v>
       </c>
       <c r="G45" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H45" t="s">
-        <v>923</v>
+        <v>802</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>535</v>
+        <v>426</v>
       </c>
       <c r="B46" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C46" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D46" t="s">
-        <v>670</v>
+        <v>560</v>
       </c>
       <c r="E46" t="s">
-        <v>741</v>
+        <v>631</v>
       </c>
       <c r="F46" t="s">
-        <v>802</v>
+        <v>692</v>
       </c>
       <c r="G46" t="s">
-        <v>861</v>
+        <v>751</v>
       </c>
       <c r="H46" t="s">
-        <v>924</v>
+        <v>803</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>536</v>
+        <v>427</v>
       </c>
       <c r="B47" t="s">
-        <v>597</v>
+        <v>487</v>
       </c>
       <c r="C47" t="s">
-        <v>621</v>
+        <v>511</v>
       </c>
       <c r="D47" t="s">
-        <v>671</v>
+        <v>561</v>
       </c>
       <c r="F47" t="s">
-        <v>803</v>
+        <v>693</v>
       </c>
       <c r="G47" t="s">
-        <v>868</v>
+        <v>751</v>
       </c>
       <c r="H47" t="s">
-        <v>925</v>
+        <v>804</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>537</v>
+        <v>428</v>
       </c>
       <c r="B48" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C48" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D48" t="s">
-        <v>672</v>
+        <v>562</v>
       </c>
       <c r="F48" t="s">
-        <v>804</v>
+        <v>694</v>
       </c>
       <c r="G48" t="s">
-        <v>871</v>
+        <v>759</v>
       </c>
       <c r="H48" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>538</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s">
-        <v>613</v>
+        <v>503</v>
       </c>
       <c r="C49" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D49" t="s">
-        <v>673</v>
+        <v>563</v>
       </c>
       <c r="F49" t="s">
-        <v>805</v>
+        <v>695</v>
       </c>
       <c r="G49" t="s">
-        <v>866</v>
+        <v>755</v>
       </c>
       <c r="H49" t="s">
-        <v>927</v>
+        <v>806</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>539</v>
+        <v>430</v>
       </c>
       <c r="B50" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C50" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D50" t="s">
-        <v>674</v>
+        <v>564</v>
       </c>
       <c r="E50" t="s">
-        <v>742</v>
+        <v>632</v>
       </c>
       <c r="F50" t="s">
-        <v>806</v>
+        <v>696</v>
       </c>
       <c r="G50" t="s">
-        <v>859</v>
+        <v>749</v>
       </c>
       <c r="H50" t="s">
-        <v>928</v>
+        <v>807</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>540</v>
+        <v>431</v>
       </c>
       <c r="B51" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C51" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D51" t="s">
-        <v>675</v>
+        <v>565</v>
       </c>
       <c r="F51" t="s">
-        <v>807</v>
+        <v>697</v>
       </c>
       <c r="G51" t="s">
-        <v>861</v>
+        <v>751</v>
       </c>
       <c r="H51" t="s">
-        <v>929</v>
+        <v>808</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>541</v>
+        <v>432</v>
       </c>
       <c r="B52" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C52" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D52" t="s">
-        <v>676</v>
+        <v>566</v>
       </c>
       <c r="E52" t="s">
-        <v>743</v>
+        <v>633</v>
       </c>
       <c r="F52" t="s">
-        <v>808</v>
+        <v>698</v>
       </c>
       <c r="G52" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H52" t="s">
-        <v>930</v>
+        <v>809</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>542</v>
+        <v>433</v>
       </c>
       <c r="B53" t="s">
-        <v>601</v>
+        <v>491</v>
       </c>
       <c r="C53" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D53" t="s">
-        <v>677</v>
+        <v>567</v>
       </c>
       <c r="F53" t="s">
-        <v>809</v>
+        <v>699</v>
       </c>
       <c r="G53" t="s">
-        <v>867</v>
+        <v>756</v>
       </c>
       <c r="H53" t="s">
-        <v>931</v>
+        <v>786</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>543</v>
+        <v>434</v>
       </c>
       <c r="B54" t="s">
-        <v>614</v>
+        <v>504</v>
       </c>
       <c r="C54" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D54" t="s">
-        <v>678</v>
+        <v>568</v>
       </c>
       <c r="F54" t="s">
-        <v>810</v>
+        <v>700</v>
       </c>
       <c r="G54" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H54" t="s">
-        <v>932</v>
+        <v>792</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>544</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s">
-        <v>595</v>
+        <v>485</v>
       </c>
       <c r="C55" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D55" t="s">
-        <v>679</v>
+        <v>569</v>
       </c>
       <c r="E55" t="s">
-        <v>744</v>
+        <v>634</v>
       </c>
       <c r="F55" t="s">
-        <v>811</v>
+        <v>701</v>
       </c>
       <c r="G55" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H55" t="s">
-        <v>933</v>
+        <v>810</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>545</v>
+        <v>436</v>
       </c>
       <c r="B56" t="s">
-        <v>615</v>
+        <v>505</v>
       </c>
       <c r="C56" t="s">
-        <v>626</v>
+        <v>516</v>
       </c>
       <c r="D56" t="s">
-        <v>680</v>
+        <v>570</v>
       </c>
       <c r="E56" t="s">
-        <v>745</v>
+        <v>635</v>
       </c>
       <c r="F56" t="s">
-        <v>812</v>
+        <v>702</v>
       </c>
       <c r="G56" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H56" t="s">
-        <v>934</v>
+        <v>779</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>546</v>
+        <v>437</v>
       </c>
       <c r="B57" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C57" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D57" t="s">
-        <v>681</v>
+        <v>571</v>
       </c>
       <c r="F57" t="s">
-        <v>813</v>
+        <v>703</v>
       </c>
       <c r="G57" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H57" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>547</v>
+        <v>438</v>
       </c>
       <c r="B58" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C58" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D58" t="s">
-        <v>682</v>
+        <v>572</v>
       </c>
       <c r="F58" t="s">
-        <v>814</v>
+        <v>704</v>
       </c>
       <c r="G58" t="s">
-        <v>870</v>
+        <v>758</v>
       </c>
       <c r="H58" t="s">
-        <v>936</v>
+        <v>812</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>548</v>
+        <v>439</v>
       </c>
       <c r="B59" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C59" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D59" t="s">
-        <v>683</v>
+        <v>573</v>
       </c>
       <c r="E59" t="s">
-        <v>746</v>
+        <v>636</v>
       </c>
       <c r="F59" t="s">
-        <v>815</v>
+        <v>705</v>
       </c>
       <c r="G59" t="s">
-        <v>870</v>
+        <v>758</v>
       </c>
       <c r="H59" t="s">
-        <v>937</v>
+        <v>813</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>549</v>
+        <v>440</v>
       </c>
       <c r="B60" t="s">
-        <v>597</v>
+        <v>487</v>
       </c>
       <c r="C60" t="s">
-        <v>621</v>
+        <v>511</v>
       </c>
       <c r="D60" t="s">
-        <v>684</v>
+        <v>574</v>
       </c>
       <c r="F60" t="s">
-        <v>816</v>
+        <v>706</v>
       </c>
       <c r="G60" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H60" t="s">
-        <v>938</v>
+        <v>814</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>550</v>
+        <v>441</v>
       </c>
       <c r="B61" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C61" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D61" t="s">
-        <v>685</v>
+        <v>575</v>
       </c>
       <c r="F61" t="s">
-        <v>817</v>
+        <v>707</v>
       </c>
       <c r="G61" t="s">
-        <v>870</v>
+        <v>758</v>
       </c>
       <c r="H61" t="s">
-        <v>939</v>
+        <v>815</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>551</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C62" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D62" t="s">
-        <v>686</v>
+        <v>576</v>
       </c>
       <c r="F62" t="s">
-        <v>818</v>
+        <v>708</v>
       </c>
       <c r="G62" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H62" t="s">
-        <v>888</v>
+        <v>774</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>552</v>
+        <v>443</v>
       </c>
       <c r="B63" t="s">
-        <v>610</v>
+        <v>500</v>
       </c>
       <c r="C63" t="s">
-        <v>622</v>
+        <v>512</v>
       </c>
       <c r="D63" t="s">
-        <v>687</v>
+        <v>577</v>
       </c>
       <c r="E63" t="s">
-        <v>747</v>
+        <v>637</v>
       </c>
       <c r="F63" t="s">
-        <v>819</v>
+        <v>709</v>
       </c>
       <c r="G63" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H63" t="s">
-        <v>940</v>
+        <v>816</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>553</v>
+        <v>444</v>
       </c>
       <c r="B64" t="s">
-        <v>597</v>
+        <v>487</v>
       </c>
       <c r="C64" t="s">
-        <v>621</v>
+        <v>511</v>
       </c>
       <c r="D64" t="s">
-        <v>688</v>
+        <v>578</v>
       </c>
       <c r="E64" t="s">
-        <v>748</v>
+        <v>638</v>
       </c>
       <c r="F64" t="s">
-        <v>820</v>
+        <v>710</v>
       </c>
       <c r="G64" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H64" t="s">
-        <v>941</v>
+        <v>817</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>554</v>
+        <v>445</v>
       </c>
       <c r="B65" t="s">
-        <v>605</v>
+        <v>495</v>
       </c>
       <c r="C65" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D65" t="s">
-        <v>689</v>
+        <v>579</v>
       </c>
       <c r="F65" t="s">
-        <v>821</v>
+        <v>711</v>
       </c>
       <c r="G65" t="s">
-        <v>865</v>
+        <v>754</v>
       </c>
       <c r="H65" t="s">
-        <v>942</v>
+        <v>818</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>555</v>
+        <v>446</v>
       </c>
       <c r="B66" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C66" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D66" t="s">
-        <v>690</v>
+        <v>580</v>
       </c>
       <c r="F66" t="s">
-        <v>822</v>
+        <v>712</v>
       </c>
       <c r="G66" t="s">
-        <v>859</v>
+        <v>749</v>
       </c>
       <c r="H66" t="s">
-        <v>943</v>
+        <v>819</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>556</v>
+        <v>447</v>
       </c>
       <c r="B67" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C67" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D67" t="s">
-        <v>691</v>
+        <v>581</v>
       </c>
       <c r="F67" t="s">
-        <v>823</v>
+        <v>713</v>
       </c>
       <c r="G67" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H67" t="s">
-        <v>944</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>557</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s">
-        <v>611</v>
+        <v>501</v>
       </c>
       <c r="C68" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D68" t="s">
-        <v>692</v>
+        <v>582</v>
       </c>
       <c r="E68" t="s">
-        <v>749</v>
+        <v>639</v>
       </c>
       <c r="F68" t="s">
-        <v>824</v>
+        <v>714</v>
       </c>
       <c r="G68" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H68" t="s">
-        <v>945</v>
+        <v>821</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>558</v>
+        <v>449</v>
       </c>
       <c r="B69" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C69" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D69" t="s">
-        <v>693</v>
+        <v>583</v>
       </c>
       <c r="E69" t="s">
-        <v>750</v>
+        <v>640</v>
       </c>
       <c r="F69" t="s">
-        <v>825</v>
+        <v>715</v>
       </c>
       <c r="G69" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H69" t="s">
-        <v>946</v>
+        <v>822</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>559</v>
+        <v>450</v>
       </c>
       <c r="B70" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C70" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D70" t="s">
-        <v>694</v>
+        <v>584</v>
       </c>
       <c r="F70" t="s">
-        <v>826</v>
+        <v>716</v>
       </c>
       <c r="G70" t="s">
-        <v>872</v>
+        <v>751</v>
       </c>
       <c r="H70" t="s">
-        <v>947</v>
+        <v>823</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>560</v>
+        <v>451</v>
       </c>
       <c r="B71" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C71" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D71" t="s">
-        <v>695</v>
+        <v>585</v>
       </c>
       <c r="F71" t="s">
-        <v>827</v>
+        <v>717</v>
       </c>
       <c r="G71" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H71" t="s">
-        <v>948</v>
+        <v>779</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>561</v>
+        <v>452</v>
       </c>
       <c r="B72" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C72" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D72" t="s">
-        <v>696</v>
+        <v>586</v>
       </c>
       <c r="F72" t="s">
-        <v>828</v>
+        <v>718</v>
       </c>
       <c r="G72" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H72" t="s">
-        <v>949</v>
+        <v>824</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>562</v>
+        <v>453</v>
       </c>
       <c r="B73" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C73" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D73" t="s">
-        <v>697</v>
+        <v>587</v>
       </c>
       <c r="F73" t="s">
-        <v>829</v>
+        <v>719</v>
       </c>
       <c r="G73" t="s">
-        <v>873</v>
+        <v>760</v>
       </c>
       <c r="H73" t="s">
-        <v>950</v>
+        <v>825</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>563</v>
+        <v>454</v>
       </c>
       <c r="B74" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C74" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D74" t="s">
-        <v>698</v>
+        <v>588</v>
       </c>
       <c r="E74" t="s">
-        <v>751</v>
+        <v>641</v>
       </c>
       <c r="F74" t="s">
-        <v>830</v>
+        <v>720</v>
       </c>
       <c r="G74" t="s">
-        <v>874</v>
+        <v>761</v>
       </c>
       <c r="H74" t="s">
-        <v>951</v>
+        <v>826</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>564</v>
+        <v>455</v>
       </c>
       <c r="B75" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C75" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D75" t="s">
-        <v>699</v>
+        <v>589</v>
       </c>
       <c r="F75" t="s">
-        <v>831</v>
+        <v>721</v>
       </c>
       <c r="G75" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H75" t="s">
-        <v>952</v>
+        <v>780</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>565</v>
+        <v>456</v>
       </c>
       <c r="B76" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C76" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D76" t="s">
-        <v>700</v>
+        <v>590</v>
       </c>
       <c r="E76" t="s">
-        <v>752</v>
+        <v>642</v>
       </c>
       <c r="F76" t="s">
-        <v>832</v>
+        <v>722</v>
       </c>
       <c r="G76" t="s">
-        <v>875</v>
+        <v>762</v>
       </c>
       <c r="H76" t="s">
-        <v>953</v>
+        <v>827</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>566</v>
+        <v>457</v>
       </c>
       <c r="B77" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C77" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D77" t="s">
-        <v>701</v>
+        <v>591</v>
       </c>
       <c r="F77" t="s">
-        <v>833</v>
+        <v>723</v>
       </c>
       <c r="G77" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H77" t="s">
-        <v>954</v>
+        <v>828</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>567</v>
+        <v>431</v>
       </c>
       <c r="B78" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C78" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D78" t="s">
-        <v>702</v>
+        <v>592</v>
       </c>
       <c r="F78" t="s">
-        <v>834</v>
+        <v>724</v>
       </c>
       <c r="G78" t="s">
-        <v>876</v>
+        <v>763</v>
       </c>
       <c r="H78" t="s">
-        <v>955</v>
+        <v>829</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>568</v>
+        <v>458</v>
       </c>
       <c r="B79" t="s">
-        <v>616</v>
+        <v>506</v>
       </c>
       <c r="C79" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D79" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="E79" t="s">
-        <v>753</v>
+        <v>643</v>
       </c>
       <c r="F79" t="s">
-        <v>835</v>
+        <v>725</v>
       </c>
       <c r="G79" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H79" t="s">
-        <v>956</v>
+        <v>779</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>569</v>
+        <v>459</v>
       </c>
       <c r="B80" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C80" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D80" t="s">
-        <v>704</v>
+        <v>594</v>
       </c>
       <c r="E80" t="s">
-        <v>754</v>
+        <v>644</v>
       </c>
       <c r="F80" t="s">
-        <v>836</v>
+        <v>726</v>
       </c>
       <c r="G80" t="s">
-        <v>877</v>
+        <v>764</v>
       </c>
       <c r="H80" t="s">
-        <v>957</v>
+        <v>830</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>570</v>
+        <v>460</v>
       </c>
       <c r="B81" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C81" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D81" t="s">
-        <v>705</v>
+        <v>595</v>
       </c>
       <c r="F81" t="s">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G81" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H81" t="s">
-        <v>958</v>
+        <v>831</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>571</v>
+        <v>461</v>
       </c>
       <c r="B82" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C82" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D82" t="s">
-        <v>706</v>
+        <v>596</v>
       </c>
       <c r="F82" t="s">
-        <v>838</v>
+        <v>728</v>
       </c>
       <c r="G82" t="s">
-        <v>878</v>
+        <v>765</v>
       </c>
       <c r="H82" t="s">
-        <v>959</v>
+        <v>832</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>572</v>
+        <v>462</v>
       </c>
       <c r="B83" t="s">
-        <v>611</v>
+        <v>501</v>
       </c>
       <c r="C83" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D83" t="s">
-        <v>707</v>
+        <v>597</v>
       </c>
       <c r="E83" t="s">
-        <v>755</v>
+        <v>645</v>
       </c>
       <c r="F83" t="s">
-        <v>839</v>
+        <v>729</v>
       </c>
       <c r="G83" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H83" t="s">
-        <v>888</v>
+        <v>774</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>573</v>
+        <v>463</v>
       </c>
       <c r="B84" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C84" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D84" t="s">
-        <v>708</v>
+        <v>598</v>
       </c>
       <c r="E84" t="s">
-        <v>756</v>
+        <v>646</v>
       </c>
       <c r="F84" t="s">
-        <v>840</v>
+        <v>730</v>
       </c>
       <c r="G84" t="s">
-        <v>870</v>
+        <v>758</v>
       </c>
       <c r="H84" t="s">
-        <v>960</v>
+        <v>833</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>574</v>
+        <v>464</v>
       </c>
       <c r="B85" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C85" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D85" t="s">
-        <v>709</v>
+        <v>599</v>
       </c>
       <c r="F85" t="s">
-        <v>841</v>
+        <v>731</v>
       </c>
       <c r="G85" t="s">
-        <v>860</v>
+        <v>750</v>
       </c>
       <c r="H85" t="s">
-        <v>961</v>
+        <v>834</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>575</v>
+        <v>465</v>
       </c>
       <c r="B86" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C86" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D86" t="s">
-        <v>710</v>
+        <v>600</v>
       </c>
       <c r="F86" t="s">
-        <v>842</v>
+        <v>732</v>
       </c>
       <c r="G86" t="s">
-        <v>861</v>
+        <v>751</v>
       </c>
       <c r="H86" t="s">
-        <v>962</v>
+        <v>835</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>576</v>
+        <v>466</v>
       </c>
       <c r="B87" t="s">
-        <v>615</v>
+        <v>505</v>
       </c>
       <c r="C87" t="s">
-        <v>626</v>
+        <v>516</v>
       </c>
       <c r="D87" t="s">
-        <v>711</v>
+        <v>601</v>
       </c>
       <c r="F87" t="s">
-        <v>843</v>
+        <v>733</v>
       </c>
       <c r="G87" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H87" t="s">
-        <v>963</v>
+        <v>790</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>577</v>
+        <v>467</v>
       </c>
       <c r="B88" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C88" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D88" t="s">
-        <v>712</v>
+        <v>602</v>
       </c>
       <c r="F88" t="s">
-        <v>844</v>
+        <v>734</v>
       </c>
       <c r="G88" t="s">
-        <v>870</v>
+        <v>758</v>
       </c>
       <c r="H88" t="s">
-        <v>964</v>
+        <v>836</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>578</v>
+        <v>468</v>
       </c>
       <c r="B89" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C89" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D89" t="s">
-        <v>713</v>
+        <v>603</v>
       </c>
       <c r="F89" t="s">
-        <v>845</v>
+        <v>735</v>
       </c>
       <c r="G89" t="s">
-        <v>870</v>
+        <v>758</v>
       </c>
       <c r="H89" t="s">
-        <v>965</v>
+        <v>837</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>579</v>
+        <v>469</v>
       </c>
       <c r="B90" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C90" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D90" t="s">
-        <v>714</v>
+        <v>604</v>
       </c>
       <c r="E90" t="s">
-        <v>757</v>
+        <v>647</v>
       </c>
       <c r="F90" t="s">
-        <v>846</v>
+        <v>736</v>
       </c>
       <c r="G90" t="s">
-        <v>873</v>
+        <v>760</v>
       </c>
       <c r="H90" t="s">
-        <v>942</v>
+        <v>818</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="B91" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C91" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D91" t="s">
-        <v>715</v>
+        <v>605</v>
       </c>
       <c r="F91" t="s">
-        <v>847</v>
+        <v>737</v>
       </c>
       <c r="G91" t="s">
-        <v>879</v>
+        <v>760</v>
       </c>
       <c r="H91" t="s">
-        <v>966</v>
+        <v>838</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>581</v>
+        <v>471</v>
       </c>
       <c r="B92" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C92" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D92" t="s">
-        <v>716</v>
+        <v>606</v>
       </c>
       <c r="F92" t="s">
-        <v>848</v>
+        <v>738</v>
       </c>
       <c r="G92" t="s">
-        <v>870</v>
+        <v>758</v>
       </c>
       <c r="H92" t="s">
-        <v>967</v>
+        <v>839</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>582</v>
+        <v>472</v>
       </c>
       <c r="B93" t="s">
-        <v>617</v>
+        <v>507</v>
       </c>
       <c r="C93" t="s">
-        <v>622</v>
+        <v>512</v>
       </c>
       <c r="D93" t="s">
-        <v>717</v>
+        <v>607</v>
       </c>
       <c r="E93" t="s">
-        <v>758</v>
+        <v>648</v>
       </c>
       <c r="F93" t="s">
-        <v>849</v>
+        <v>739</v>
       </c>
       <c r="G93" t="s">
-        <v>871</v>
+        <v>759</v>
       </c>
       <c r="H93" t="s">
-        <v>968</v>
+        <v>805</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>583</v>
+        <v>473</v>
       </c>
       <c r="B94" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C94" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D94" t="s">
-        <v>718</v>
+        <v>608</v>
       </c>
       <c r="E94" t="s">
-        <v>759</v>
+        <v>649</v>
       </c>
       <c r="F94" t="s">
-        <v>850</v>
+        <v>740</v>
       </c>
       <c r="G94" t="s">
-        <v>870</v>
+        <v>758</v>
       </c>
       <c r="H94" t="s">
-        <v>969</v>
+        <v>840</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>584</v>
+        <v>474</v>
       </c>
       <c r="B95" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="C95" t="s">
-        <v>619</v>
+        <v>509</v>
       </c>
       <c r="D95" t="s">
-        <v>719</v>
+        <v>609</v>
       </c>
       <c r="F95" t="s">
-        <v>851</v>
+        <v>741</v>
       </c>
       <c r="G95" t="s">
-        <v>867</v>
+        <v>756</v>
       </c>
       <c r="H95" t="s">
-        <v>970</v>
+        <v>841</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>585</v>
+        <v>475</v>
       </c>
       <c r="B96" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C96" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D96" t="s">
-        <v>720</v>
+        <v>610</v>
       </c>
       <c r="F96" t="s">
-        <v>852</v>
+        <v>742</v>
       </c>
       <c r="G96" t="s">
-        <v>880</v>
+        <v>766</v>
       </c>
       <c r="H96" t="s">
-        <v>971</v>
+        <v>839</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>586</v>
+        <v>476</v>
       </c>
       <c r="B97" t="s">
-        <v>605</v>
+        <v>495</v>
       </c>
       <c r="C97" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D97" t="s">
-        <v>721</v>
+        <v>611</v>
       </c>
       <c r="F97" t="s">
-        <v>853</v>
+        <v>743</v>
       </c>
       <c r="G97" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="H97" t="s">
-        <v>972</v>
+        <v>779</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>587</v>
+        <v>477</v>
       </c>
       <c r="B98" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
       <c r="C98" t="s">
-        <v>618</v>
+        <v>508</v>
       </c>
       <c r="D98" t="s">
-        <v>722</v>
+        <v>612</v>
       </c>
       <c r="F98" t="s">
-        <v>854</v>
+        <v>744</v>
       </c>
       <c r="G98" t="s">
-        <v>863</v>
+        <v>751</v>
       </c>
       <c r="H98" t="s">
-        <v>973</v>
+        <v>842</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="B99" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C99" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D99" t="s">
-        <v>723</v>
+        <v>613</v>
       </c>
       <c r="E99" t="s">
-        <v>760</v>
+        <v>650</v>
       </c>
       <c r="F99" t="s">
-        <v>855</v>
+        <v>745</v>
       </c>
       <c r="G99" t="s">
-        <v>864</v>
+        <v>753</v>
       </c>
       <c r="H99" t="s">
-        <v>974</v>
+        <v>843</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>589</v>
+        <v>479</v>
       </c>
       <c r="B100" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="C100" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D100" t="s">
-        <v>724</v>
+        <v>614</v>
       </c>
       <c r="F100" t="s">
-        <v>856</v>
+        <v>746</v>
       </c>
       <c r="G100" t="s">
-        <v>881</v>
+        <v>767</v>
       </c>
       <c r="H100" t="s">
-        <v>975</v>
+        <v>844</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>590</v>
+        <v>480</v>
       </c>
       <c r="B101" t="s">
-        <v>611</v>
+        <v>501</v>
       </c>
       <c r="C101" t="s">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D101" t="s">
-        <v>725</v>
+        <v>615</v>
       </c>
       <c r="E101" t="s">
-        <v>761</v>
+        <v>651</v>
       </c>
       <c r="F101" t="s">
-        <v>857</v>
+        <v>747</v>
       </c>
       <c r="G101" t="s">
-        <v>867</v>
+        <v>756</v>
       </c>
       <c r="H101" t="s">
-        <v>976</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
